--- a/resources/SG_Eco_Fund_Budget_Template.xlsx
+++ b/resources/SG_Eco_Fund_Budget_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MEWR-ETTC\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9092EEF3-1CF2-49C8-9B66-F578A135CA52}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBF80AB5-1AF8-4536-A02D-C40D16F2D119}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{117B0BEF-59EE-4BE7-9CE1-06F874379F03}"/>
   </bookViews>
@@ -747,6 +747,126 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -765,126 +885,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -921,6 +921,69 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -936,6 +999,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -953,72 +1019,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1340,8 +1340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD349C7E-2240-41DB-9023-5388AF387011}">
   <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="J79" sqref="J79:J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1644,9 +1644,8 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"-,Bold"Singapore Tourism Board 
-Tourism Product Development Fund (TPDF)</oddHeader>
-    <oddFooter>&amp;L&amp;"-,Regular"[Ver. 02.05.19]&amp;C&amp;"-,Regular"Confidential&amp;R&amp;"-,Regular"Pg &amp;P of &amp;N</oddFooter>
+    <oddHeader>&amp;C&amp;"-,Bold"SG Eco Fund</oddHeader>
+    <oddFooter>&amp;L[Ver. 25.11.20]&amp;CConfidential&amp;RPg &amp;P of &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1655,8 +1654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E314D3-E6C1-44BA-AB57-6C9F257A3926}">
   <dimension ref="A1:AH72"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:AD3"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1741,37 +1740,37 @@
       <c r="AE2" s="37"/>
     </row>
     <row r="3" spans="1:34" s="3" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="108"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="108"/>
-      <c r="X3" s="108"/>
-      <c r="Y3" s="108"/>
-      <c r="Z3" s="108"/>
-      <c r="AA3" s="108"/>
-      <c r="AB3" s="108"/>
-      <c r="AC3" s="108"/>
-      <c r="AD3" s="108"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="71"/>
+      <c r="V3" s="71"/>
+      <c r="W3" s="71"/>
+      <c r="X3" s="71"/>
+      <c r="Y3" s="71"/>
+      <c r="Z3" s="71"/>
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="71"/>
+      <c r="AC3" s="71"/>
+      <c r="AD3" s="71"/>
     </row>
     <row r="4" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11"/>
@@ -1848,192 +1847,192 @@
     </row>
     <row r="7" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
-      <c r="D7" s="77" t="s">
+      <c r="D7" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="79"/>
-      <c r="F7" s="69" t="s">
+      <c r="E7" s="64"/>
+      <c r="F7" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="70"/>
-      <c r="S7" s="70"/>
-      <c r="T7" s="70"/>
-      <c r="U7" s="70"/>
-      <c r="V7" s="70"/>
-      <c r="W7" s="70"/>
-      <c r="X7" s="70"/>
-      <c r="Y7" s="71"/>
-      <c r="Z7" s="77" t="s">
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="73"/>
+      <c r="T7" s="73"/>
+      <c r="U7" s="73"/>
+      <c r="V7" s="73"/>
+      <c r="W7" s="73"/>
+      <c r="X7" s="73"/>
+      <c r="Y7" s="74"/>
+      <c r="Z7" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="AA7" s="78"/>
-      <c r="AB7" s="78"/>
-      <c r="AC7" s="78"/>
-      <c r="AD7" s="79"/>
+      <c r="AA7" s="65"/>
+      <c r="AB7" s="65"/>
+      <c r="AC7" s="65"/>
+      <c r="AD7" s="64"/>
       <c r="AH7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="97"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="73"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="73"/>
-      <c r="Q8" s="73"/>
-      <c r="R8" s="73"/>
-      <c r="S8" s="73"/>
-      <c r="T8" s="73"/>
-      <c r="U8" s="73"/>
-      <c r="V8" s="73"/>
-      <c r="W8" s="73"/>
-      <c r="X8" s="73"/>
-      <c r="Y8" s="74"/>
-      <c r="Z8" s="83"/>
-      <c r="AA8" s="84"/>
-      <c r="AB8" s="84"/>
-      <c r="AC8" s="84"/>
-      <c r="AD8" s="85"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="76"/>
+      <c r="P8" s="76"/>
+      <c r="Q8" s="76"/>
+      <c r="R8" s="76"/>
+      <c r="S8" s="76"/>
+      <c r="T8" s="76"/>
+      <c r="U8" s="76"/>
+      <c r="V8" s="76"/>
+      <c r="W8" s="76"/>
+      <c r="X8" s="76"/>
+      <c r="Y8" s="77"/>
+      <c r="Z8" s="68"/>
+      <c r="AA8" s="69"/>
+      <c r="AB8" s="69"/>
+      <c r="AC8" s="69"/>
+      <c r="AD8" s="70"/>
     </row>
     <row r="9" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D9" s="60"/>
       <c r="E9" s="62"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="73"/>
-      <c r="T9" s="73"/>
-      <c r="U9" s="73"/>
-      <c r="V9" s="73"/>
-      <c r="W9" s="73"/>
-      <c r="X9" s="73"/>
-      <c r="Y9" s="74"/>
-      <c r="Z9" s="83"/>
-      <c r="AA9" s="84"/>
-      <c r="AB9" s="84"/>
-      <c r="AC9" s="84"/>
-      <c r="AD9" s="85"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="76"/>
+      <c r="S9" s="76"/>
+      <c r="T9" s="76"/>
+      <c r="U9" s="76"/>
+      <c r="V9" s="76"/>
+      <c r="W9" s="76"/>
+      <c r="X9" s="76"/>
+      <c r="Y9" s="77"/>
+      <c r="Z9" s="68"/>
+      <c r="AA9" s="69"/>
+      <c r="AB9" s="69"/>
+      <c r="AC9" s="69"/>
+      <c r="AD9" s="70"/>
     </row>
     <row r="10" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D10" s="60"/>
       <c r="E10" s="62"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="73"/>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="73"/>
-      <c r="S10" s="73"/>
-      <c r="T10" s="73"/>
-      <c r="U10" s="73"/>
-      <c r="V10" s="73"/>
-      <c r="W10" s="73"/>
-      <c r="X10" s="73"/>
-      <c r="Y10" s="74"/>
-      <c r="Z10" s="83"/>
-      <c r="AA10" s="84"/>
-      <c r="AB10" s="84"/>
-      <c r="AC10" s="84"/>
-      <c r="AD10" s="85"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="76"/>
+      <c r="S10" s="76"/>
+      <c r="T10" s="76"/>
+      <c r="U10" s="76"/>
+      <c r="V10" s="76"/>
+      <c r="W10" s="76"/>
+      <c r="X10" s="76"/>
+      <c r="Y10" s="77"/>
+      <c r="Z10" s="68"/>
+      <c r="AA10" s="69"/>
+      <c r="AB10" s="69"/>
+      <c r="AC10" s="69"/>
+      <c r="AD10" s="70"/>
     </row>
     <row r="11" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D11" s="60"/>
       <c r="E11" s="62"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="73"/>
-      <c r="Q11" s="73"/>
-      <c r="R11" s="73"/>
-      <c r="S11" s="73"/>
-      <c r="T11" s="73"/>
-      <c r="U11" s="73"/>
-      <c r="V11" s="73"/>
-      <c r="W11" s="73"/>
-      <c r="X11" s="73"/>
-      <c r="Y11" s="74"/>
-      <c r="Z11" s="83"/>
-      <c r="AA11" s="84"/>
-      <c r="AB11" s="84"/>
-      <c r="AC11" s="84"/>
-      <c r="AD11" s="85"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="76"/>
+      <c r="P11" s="76"/>
+      <c r="Q11" s="76"/>
+      <c r="R11" s="76"/>
+      <c r="S11" s="76"/>
+      <c r="T11" s="76"/>
+      <c r="U11" s="76"/>
+      <c r="V11" s="76"/>
+      <c r="W11" s="76"/>
+      <c r="X11" s="76"/>
+      <c r="Y11" s="77"/>
+      <c r="Z11" s="68"/>
+      <c r="AA11" s="69"/>
+      <c r="AB11" s="69"/>
+      <c r="AC11" s="69"/>
+      <c r="AD11" s="70"/>
     </row>
     <row r="12" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="86" t="s">
+      <c r="D12" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="86"/>
-      <c r="N12" s="86"/>
-      <c r="O12" s="86"/>
-      <c r="P12" s="86"/>
-      <c r="Q12" s="86"/>
-      <c r="R12" s="86"/>
-      <c r="S12" s="86"/>
-      <c r="T12" s="86"/>
-      <c r="U12" s="86"/>
-      <c r="V12" s="86"/>
-      <c r="W12" s="86"/>
-      <c r="X12" s="86"/>
-      <c r="Y12" s="87"/>
-      <c r="Z12" s="101">
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="78"/>
+      <c r="S12" s="78"/>
+      <c r="T12" s="78"/>
+      <c r="U12" s="78"/>
+      <c r="V12" s="78"/>
+      <c r="W12" s="78"/>
+      <c r="X12" s="78"/>
+      <c r="Y12" s="79"/>
+      <c r="Z12" s="80">
         <f>SUM(Z8:AD11)</f>
         <v>0</v>
       </c>
-      <c r="AA12" s="102"/>
-      <c r="AB12" s="102"/>
-      <c r="AC12" s="102"/>
-      <c r="AD12" s="103"/>
+      <c r="AA12" s="81"/>
+      <c r="AB12" s="81"/>
+      <c r="AC12" s="81"/>
+      <c r="AD12" s="82"/>
     </row>
     <row r="13" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D13" s="6"/>
@@ -2102,131 +2101,131 @@
     <row r="15" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="77" t="s">
+      <c r="D15" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="79"/>
-      <c r="F15" s="69" t="s">
+      <c r="E15" s="64"/>
+      <c r="F15" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="70"/>
-      <c r="R15" s="70"/>
-      <c r="S15" s="70"/>
-      <c r="T15" s="70"/>
-      <c r="U15" s="70"/>
-      <c r="V15" s="70"/>
-      <c r="W15" s="70"/>
-      <c r="X15" s="70"/>
-      <c r="Y15" s="71"/>
-      <c r="Z15" s="77" t="s">
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="73"/>
+      <c r="Q15" s="73"/>
+      <c r="R15" s="73"/>
+      <c r="S15" s="73"/>
+      <c r="T15" s="73"/>
+      <c r="U15" s="73"/>
+      <c r="V15" s="73"/>
+      <c r="W15" s="73"/>
+      <c r="X15" s="73"/>
+      <c r="Y15" s="74"/>
+      <c r="Z15" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="AA15" s="78"/>
-      <c r="AB15" s="78"/>
-      <c r="AC15" s="78"/>
-      <c r="AD15" s="79"/>
+      <c r="AA15" s="65"/>
+      <c r="AB15" s="65"/>
+      <c r="AC15" s="65"/>
+      <c r="AD15" s="64"/>
     </row>
     <row r="16" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="97"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="106"/>
-      <c r="K16" s="106"/>
-      <c r="L16" s="106"/>
-      <c r="M16" s="106"/>
-      <c r="N16" s="106"/>
-      <c r="O16" s="106"/>
-      <c r="P16" s="106"/>
-      <c r="Q16" s="106"/>
-      <c r="R16" s="106"/>
-      <c r="S16" s="106"/>
-      <c r="T16" s="106"/>
-      <c r="U16" s="106"/>
-      <c r="V16" s="106"/>
-      <c r="W16" s="106"/>
-      <c r="X16" s="106"/>
-      <c r="Y16" s="107"/>
-      <c r="Z16" s="83"/>
-      <c r="AA16" s="84"/>
-      <c r="AB16" s="84"/>
-      <c r="AC16" s="84"/>
-      <c r="AD16" s="85"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="85"/>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="85"/>
+      <c r="S16" s="85"/>
+      <c r="T16" s="85"/>
+      <c r="U16" s="85"/>
+      <c r="V16" s="85"/>
+      <c r="W16" s="85"/>
+      <c r="X16" s="85"/>
+      <c r="Y16" s="86"/>
+      <c r="Z16" s="68"/>
+      <c r="AA16" s="69"/>
+      <c r="AB16" s="69"/>
+      <c r="AC16" s="69"/>
+      <c r="AD16" s="70"/>
     </row>
     <row r="17" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D17" s="60"/>
       <c r="E17" s="62"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="73"/>
-      <c r="Q17" s="73"/>
-      <c r="R17" s="73"/>
-      <c r="S17" s="73"/>
-      <c r="T17" s="73"/>
-      <c r="U17" s="73"/>
-      <c r="V17" s="73"/>
-      <c r="W17" s="73"/>
-      <c r="X17" s="73"/>
-      <c r="Y17" s="74"/>
-      <c r="Z17" s="83"/>
-      <c r="AA17" s="84"/>
-      <c r="AB17" s="84"/>
-      <c r="AC17" s="84"/>
-      <c r="AD17" s="85"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="76"/>
+      <c r="O17" s="76"/>
+      <c r="P17" s="76"/>
+      <c r="Q17" s="76"/>
+      <c r="R17" s="76"/>
+      <c r="S17" s="76"/>
+      <c r="T17" s="76"/>
+      <c r="U17" s="76"/>
+      <c r="V17" s="76"/>
+      <c r="W17" s="76"/>
+      <c r="X17" s="76"/>
+      <c r="Y17" s="77"/>
+      <c r="Z17" s="68"/>
+      <c r="AA17" s="69"/>
+      <c r="AB17" s="69"/>
+      <c r="AC17" s="69"/>
+      <c r="AD17" s="70"/>
     </row>
     <row r="18" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="86" t="s">
+      <c r="D18" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="86"/>
-      <c r="M18" s="86"/>
-      <c r="N18" s="86"/>
-      <c r="O18" s="86"/>
-      <c r="P18" s="86"/>
-      <c r="Q18" s="86"/>
-      <c r="R18" s="86"/>
-      <c r="S18" s="86"/>
-      <c r="T18" s="86"/>
-      <c r="U18" s="86"/>
-      <c r="V18" s="86"/>
-      <c r="W18" s="86"/>
-      <c r="X18" s="86"/>
-      <c r="Y18" s="87"/>
-      <c r="Z18" s="101">
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="78"/>
+      <c r="R18" s="78"/>
+      <c r="S18" s="78"/>
+      <c r="T18" s="78"/>
+      <c r="U18" s="78"/>
+      <c r="V18" s="78"/>
+      <c r="W18" s="78"/>
+      <c r="X18" s="78"/>
+      <c r="Y18" s="79"/>
+      <c r="Z18" s="80">
         <f>SUM(Z16:AD17)</f>
         <v>0</v>
       </c>
-      <c r="AA18" s="102"/>
-      <c r="AB18" s="102"/>
-      <c r="AC18" s="102"/>
-      <c r="AD18" s="103"/>
+      <c r="AA18" s="81"/>
+      <c r="AB18" s="81"/>
+      <c r="AC18" s="81"/>
+      <c r="AD18" s="82"/>
     </row>
     <row r="19" spans="2:30" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D19" s="49"/>
@@ -2328,189 +2327,189 @@
     <row r="22" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="77" t="s">
+      <c r="D22" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="79"/>
-      <c r="F22" s="69" t="s">
+      <c r="E22" s="64"/>
+      <c r="F22" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="70"/>
-      <c r="O22" s="70"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="70"/>
-      <c r="R22" s="70"/>
-      <c r="S22" s="70"/>
-      <c r="T22" s="70"/>
-      <c r="U22" s="70"/>
-      <c r="V22" s="70"/>
-      <c r="W22" s="70"/>
-      <c r="X22" s="70"/>
-      <c r="Y22" s="71"/>
-      <c r="Z22" s="77" t="s">
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="73"/>
+      <c r="Q22" s="73"/>
+      <c r="R22" s="73"/>
+      <c r="S22" s="73"/>
+      <c r="T22" s="73"/>
+      <c r="U22" s="73"/>
+      <c r="V22" s="73"/>
+      <c r="W22" s="73"/>
+      <c r="X22" s="73"/>
+      <c r="Y22" s="74"/>
+      <c r="Z22" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="AA22" s="78"/>
-      <c r="AB22" s="78"/>
-      <c r="AC22" s="78"/>
-      <c r="AD22" s="79"/>
+      <c r="AA22" s="65"/>
+      <c r="AB22" s="65"/>
+      <c r="AC22" s="65"/>
+      <c r="AD22" s="64"/>
     </row>
     <row r="23" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D23" s="60"/>
       <c r="E23" s="62"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="73"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="73"/>
-      <c r="N23" s="73"/>
-      <c r="O23" s="73"/>
-      <c r="P23" s="73"/>
-      <c r="Q23" s="73"/>
-      <c r="R23" s="73"/>
-      <c r="S23" s="73"/>
-      <c r="T23" s="73"/>
-      <c r="U23" s="73"/>
-      <c r="V23" s="73"/>
-      <c r="W23" s="73"/>
-      <c r="X23" s="73"/>
-      <c r="Y23" s="74"/>
-      <c r="Z23" s="83"/>
-      <c r="AA23" s="84"/>
-      <c r="AB23" s="84"/>
-      <c r="AC23" s="84"/>
-      <c r="AD23" s="85"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="76"/>
+      <c r="O23" s="76"/>
+      <c r="P23" s="76"/>
+      <c r="Q23" s="76"/>
+      <c r="R23" s="76"/>
+      <c r="S23" s="76"/>
+      <c r="T23" s="76"/>
+      <c r="U23" s="76"/>
+      <c r="V23" s="76"/>
+      <c r="W23" s="76"/>
+      <c r="X23" s="76"/>
+      <c r="Y23" s="77"/>
+      <c r="Z23" s="68"/>
+      <c r="AA23" s="69"/>
+      <c r="AB23" s="69"/>
+      <c r="AC23" s="69"/>
+      <c r="AD23" s="70"/>
     </row>
     <row r="24" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D24" s="60"/>
       <c r="E24" s="62"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="73"/>
-      <c r="L24" s="73"/>
-      <c r="M24" s="73"/>
-      <c r="N24" s="73"/>
-      <c r="O24" s="73"/>
-      <c r="P24" s="73"/>
-      <c r="Q24" s="73"/>
-      <c r="R24" s="73"/>
-      <c r="S24" s="73"/>
-      <c r="T24" s="73"/>
-      <c r="U24" s="73"/>
-      <c r="V24" s="73"/>
-      <c r="W24" s="73"/>
-      <c r="X24" s="73"/>
-      <c r="Y24" s="74"/>
-      <c r="Z24" s="83"/>
-      <c r="AA24" s="84"/>
-      <c r="AB24" s="84"/>
-      <c r="AC24" s="84"/>
-      <c r="AD24" s="85"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="76"/>
+      <c r="O24" s="76"/>
+      <c r="P24" s="76"/>
+      <c r="Q24" s="76"/>
+      <c r="R24" s="76"/>
+      <c r="S24" s="76"/>
+      <c r="T24" s="76"/>
+      <c r="U24" s="76"/>
+      <c r="V24" s="76"/>
+      <c r="W24" s="76"/>
+      <c r="X24" s="76"/>
+      <c r="Y24" s="77"/>
+      <c r="Z24" s="68"/>
+      <c r="AA24" s="69"/>
+      <c r="AB24" s="69"/>
+      <c r="AC24" s="69"/>
+      <c r="AD24" s="70"/>
     </row>
     <row r="25" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D25" s="60"/>
       <c r="E25" s="62"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="73"/>
-      <c r="N25" s="73"/>
-      <c r="O25" s="73"/>
-      <c r="P25" s="73"/>
-      <c r="Q25" s="73"/>
-      <c r="R25" s="73"/>
-      <c r="S25" s="73"/>
-      <c r="T25" s="73"/>
-      <c r="U25" s="73"/>
-      <c r="V25" s="73"/>
-      <c r="W25" s="73"/>
-      <c r="X25" s="73"/>
-      <c r="Y25" s="74"/>
-      <c r="Z25" s="83"/>
-      <c r="AA25" s="84"/>
-      <c r="AB25" s="84"/>
-      <c r="AC25" s="84"/>
-      <c r="AD25" s="85"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="76"/>
+      <c r="M25" s="76"/>
+      <c r="N25" s="76"/>
+      <c r="O25" s="76"/>
+      <c r="P25" s="76"/>
+      <c r="Q25" s="76"/>
+      <c r="R25" s="76"/>
+      <c r="S25" s="76"/>
+      <c r="T25" s="76"/>
+      <c r="U25" s="76"/>
+      <c r="V25" s="76"/>
+      <c r="W25" s="76"/>
+      <c r="X25" s="76"/>
+      <c r="Y25" s="77"/>
+      <c r="Z25" s="68"/>
+      <c r="AA25" s="69"/>
+      <c r="AB25" s="69"/>
+      <c r="AC25" s="69"/>
+      <c r="AD25" s="70"/>
     </row>
     <row r="26" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D26" s="60"/>
       <c r="E26" s="62"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="73"/>
-      <c r="M26" s="73"/>
-      <c r="N26" s="73"/>
-      <c r="O26" s="73"/>
-      <c r="P26" s="73"/>
-      <c r="Q26" s="73"/>
-      <c r="R26" s="73"/>
-      <c r="S26" s="73"/>
-      <c r="T26" s="73"/>
-      <c r="U26" s="73"/>
-      <c r="V26" s="73"/>
-      <c r="W26" s="73"/>
-      <c r="X26" s="73"/>
-      <c r="Y26" s="74"/>
-      <c r="Z26" s="83"/>
-      <c r="AA26" s="84"/>
-      <c r="AB26" s="84"/>
-      <c r="AC26" s="84"/>
-      <c r="AD26" s="85"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="76"/>
+      <c r="O26" s="76"/>
+      <c r="P26" s="76"/>
+      <c r="Q26" s="76"/>
+      <c r="R26" s="76"/>
+      <c r="S26" s="76"/>
+      <c r="T26" s="76"/>
+      <c r="U26" s="76"/>
+      <c r="V26" s="76"/>
+      <c r="W26" s="76"/>
+      <c r="X26" s="76"/>
+      <c r="Y26" s="77"/>
+      <c r="Z26" s="68"/>
+      <c r="AA26" s="69"/>
+      <c r="AB26" s="69"/>
+      <c r="AC26" s="69"/>
+      <c r="AD26" s="70"/>
     </row>
     <row r="27" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="86" t="s">
+      <c r="D27" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="86"/>
-      <c r="M27" s="86"/>
-      <c r="N27" s="86"/>
-      <c r="O27" s="86"/>
-      <c r="P27" s="86"/>
-      <c r="Q27" s="86"/>
-      <c r="R27" s="86"/>
-      <c r="S27" s="86"/>
-      <c r="T27" s="86"/>
-      <c r="U27" s="86"/>
-      <c r="V27" s="86"/>
-      <c r="W27" s="86"/>
-      <c r="X27" s="86"/>
-      <c r="Y27" s="87"/>
-      <c r="Z27" s="101">
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="78"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="78"/>
+      <c r="P27" s="78"/>
+      <c r="Q27" s="78"/>
+      <c r="R27" s="78"/>
+      <c r="S27" s="78"/>
+      <c r="T27" s="78"/>
+      <c r="U27" s="78"/>
+      <c r="V27" s="78"/>
+      <c r="W27" s="78"/>
+      <c r="X27" s="78"/>
+      <c r="Y27" s="79"/>
+      <c r="Z27" s="80">
         <f>SUM(Z23:AD26)</f>
         <v>0</v>
       </c>
-      <c r="AA27" s="102"/>
-      <c r="AB27" s="102"/>
-      <c r="AC27" s="102"/>
-      <c r="AD27" s="103"/>
+      <c r="AA27" s="81"/>
+      <c r="AB27" s="81"/>
+      <c r="AC27" s="81"/>
+      <c r="AD27" s="82"/>
     </row>
     <row r="28" spans="2:30" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D28" s="49"/>
@@ -2612,189 +2611,189 @@
     <row r="31" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="4"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="77" t="s">
+      <c r="D31" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="79"/>
-      <c r="F31" s="69" t="s">
+      <c r="E31" s="64"/>
+      <c r="F31" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="70"/>
-      <c r="N31" s="70"/>
-      <c r="O31" s="70"/>
-      <c r="P31" s="70"/>
-      <c r="Q31" s="70"/>
-      <c r="R31" s="70"/>
-      <c r="S31" s="70"/>
-      <c r="T31" s="70"/>
-      <c r="U31" s="70"/>
-      <c r="V31" s="70"/>
-      <c r="W31" s="70"/>
-      <c r="X31" s="70"/>
-      <c r="Y31" s="71"/>
-      <c r="Z31" s="77" t="s">
+      <c r="G31" s="73"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="73"/>
+      <c r="P31" s="73"/>
+      <c r="Q31" s="73"/>
+      <c r="R31" s="73"/>
+      <c r="S31" s="73"/>
+      <c r="T31" s="73"/>
+      <c r="U31" s="73"/>
+      <c r="V31" s="73"/>
+      <c r="W31" s="73"/>
+      <c r="X31" s="73"/>
+      <c r="Y31" s="74"/>
+      <c r="Z31" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="AA31" s="78"/>
-      <c r="AB31" s="78"/>
-      <c r="AC31" s="78"/>
-      <c r="AD31" s="79"/>
+      <c r="AA31" s="65"/>
+      <c r="AB31" s="65"/>
+      <c r="AC31" s="65"/>
+      <c r="AD31" s="64"/>
     </row>
     <row r="32" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D32" s="60"/>
       <c r="E32" s="62"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="73"/>
-      <c r="L32" s="73"/>
-      <c r="M32" s="73"/>
-      <c r="N32" s="73"/>
-      <c r="O32" s="73"/>
-      <c r="P32" s="73"/>
-      <c r="Q32" s="73"/>
-      <c r="R32" s="73"/>
-      <c r="S32" s="73"/>
-      <c r="T32" s="73"/>
-      <c r="U32" s="73"/>
-      <c r="V32" s="73"/>
-      <c r="W32" s="73"/>
-      <c r="X32" s="73"/>
-      <c r="Y32" s="74"/>
-      <c r="Z32" s="83"/>
-      <c r="AA32" s="84"/>
-      <c r="AB32" s="84"/>
-      <c r="AC32" s="84"/>
-      <c r="AD32" s="85"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="76"/>
+      <c r="M32" s="76"/>
+      <c r="N32" s="76"/>
+      <c r="O32" s="76"/>
+      <c r="P32" s="76"/>
+      <c r="Q32" s="76"/>
+      <c r="R32" s="76"/>
+      <c r="S32" s="76"/>
+      <c r="T32" s="76"/>
+      <c r="U32" s="76"/>
+      <c r="V32" s="76"/>
+      <c r="W32" s="76"/>
+      <c r="X32" s="76"/>
+      <c r="Y32" s="77"/>
+      <c r="Z32" s="68"/>
+      <c r="AA32" s="69"/>
+      <c r="AB32" s="69"/>
+      <c r="AC32" s="69"/>
+      <c r="AD32" s="70"/>
     </row>
     <row r="33" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D33" s="60"/>
       <c r="E33" s="62"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
-      <c r="I33" s="73"/>
-      <c r="J33" s="73"/>
-      <c r="K33" s="73"/>
-      <c r="L33" s="73"/>
-      <c r="M33" s="73"/>
-      <c r="N33" s="73"/>
-      <c r="O33" s="73"/>
-      <c r="P33" s="73"/>
-      <c r="Q33" s="73"/>
-      <c r="R33" s="73"/>
-      <c r="S33" s="73"/>
-      <c r="T33" s="73"/>
-      <c r="U33" s="73"/>
-      <c r="V33" s="73"/>
-      <c r="W33" s="73"/>
-      <c r="X33" s="73"/>
-      <c r="Y33" s="74"/>
-      <c r="Z33" s="83"/>
-      <c r="AA33" s="84"/>
-      <c r="AB33" s="84"/>
-      <c r="AC33" s="84"/>
-      <c r="AD33" s="85"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="76"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="76"/>
+      <c r="O33" s="76"/>
+      <c r="P33" s="76"/>
+      <c r="Q33" s="76"/>
+      <c r="R33" s="76"/>
+      <c r="S33" s="76"/>
+      <c r="T33" s="76"/>
+      <c r="U33" s="76"/>
+      <c r="V33" s="76"/>
+      <c r="W33" s="76"/>
+      <c r="X33" s="76"/>
+      <c r="Y33" s="77"/>
+      <c r="Z33" s="68"/>
+      <c r="AA33" s="69"/>
+      <c r="AB33" s="69"/>
+      <c r="AC33" s="69"/>
+      <c r="AD33" s="70"/>
     </row>
     <row r="34" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D34" s="60"/>
       <c r="E34" s="62"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="73"/>
-      <c r="I34" s="73"/>
-      <c r="J34" s="73"/>
-      <c r="K34" s="73"/>
-      <c r="L34" s="73"/>
-      <c r="M34" s="73"/>
-      <c r="N34" s="73"/>
-      <c r="O34" s="73"/>
-      <c r="P34" s="73"/>
-      <c r="Q34" s="73"/>
-      <c r="R34" s="73"/>
-      <c r="S34" s="73"/>
-      <c r="T34" s="73"/>
-      <c r="U34" s="73"/>
-      <c r="V34" s="73"/>
-      <c r="W34" s="73"/>
-      <c r="X34" s="73"/>
-      <c r="Y34" s="74"/>
-      <c r="Z34" s="83"/>
-      <c r="AA34" s="84"/>
-      <c r="AB34" s="84"/>
-      <c r="AC34" s="84"/>
-      <c r="AD34" s="85"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="76"/>
+      <c r="M34" s="76"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="76"/>
+      <c r="P34" s="76"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="76"/>
+      <c r="S34" s="76"/>
+      <c r="T34" s="76"/>
+      <c r="U34" s="76"/>
+      <c r="V34" s="76"/>
+      <c r="W34" s="76"/>
+      <c r="X34" s="76"/>
+      <c r="Y34" s="77"/>
+      <c r="Z34" s="68"/>
+      <c r="AA34" s="69"/>
+      <c r="AB34" s="69"/>
+      <c r="AC34" s="69"/>
+      <c r="AD34" s="70"/>
     </row>
     <row r="35" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D35" s="60"/>
       <c r="E35" s="62"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="73"/>
-      <c r="L35" s="73"/>
-      <c r="M35" s="73"/>
-      <c r="N35" s="73"/>
-      <c r="O35" s="73"/>
-      <c r="P35" s="73"/>
-      <c r="Q35" s="73"/>
-      <c r="R35" s="73"/>
-      <c r="S35" s="73"/>
-      <c r="T35" s="73"/>
-      <c r="U35" s="73"/>
-      <c r="V35" s="73"/>
-      <c r="W35" s="73"/>
-      <c r="X35" s="73"/>
-      <c r="Y35" s="74"/>
-      <c r="Z35" s="83"/>
-      <c r="AA35" s="84"/>
-      <c r="AB35" s="84"/>
-      <c r="AC35" s="84"/>
-      <c r="AD35" s="85"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="76"/>
+      <c r="N35" s="76"/>
+      <c r="O35" s="76"/>
+      <c r="P35" s="76"/>
+      <c r="Q35" s="76"/>
+      <c r="R35" s="76"/>
+      <c r="S35" s="76"/>
+      <c r="T35" s="76"/>
+      <c r="U35" s="76"/>
+      <c r="V35" s="76"/>
+      <c r="W35" s="76"/>
+      <c r="X35" s="76"/>
+      <c r="Y35" s="77"/>
+      <c r="Z35" s="68"/>
+      <c r="AA35" s="69"/>
+      <c r="AB35" s="69"/>
+      <c r="AC35" s="69"/>
+      <c r="AD35" s="70"/>
     </row>
     <row r="36" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="86" t="s">
+      <c r="D36" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="86"/>
-      <c r="F36" s="86"/>
-      <c r="G36" s="86"/>
-      <c r="H36" s="86"/>
-      <c r="I36" s="86"/>
-      <c r="J36" s="86"/>
-      <c r="K36" s="86"/>
-      <c r="L36" s="86"/>
-      <c r="M36" s="86"/>
-      <c r="N36" s="86"/>
-      <c r="O36" s="86"/>
-      <c r="P36" s="86"/>
-      <c r="Q36" s="86"/>
-      <c r="R36" s="86"/>
-      <c r="S36" s="86"/>
-      <c r="T36" s="86"/>
-      <c r="U36" s="86"/>
-      <c r="V36" s="86"/>
-      <c r="W36" s="86"/>
-      <c r="X36" s="86"/>
-      <c r="Y36" s="87"/>
-      <c r="Z36" s="101">
+      <c r="E36" s="78"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="78"/>
+      <c r="H36" s="78"/>
+      <c r="I36" s="78"/>
+      <c r="J36" s="78"/>
+      <c r="K36" s="78"/>
+      <c r="L36" s="78"/>
+      <c r="M36" s="78"/>
+      <c r="N36" s="78"/>
+      <c r="O36" s="78"/>
+      <c r="P36" s="78"/>
+      <c r="Q36" s="78"/>
+      <c r="R36" s="78"/>
+      <c r="S36" s="78"/>
+      <c r="T36" s="78"/>
+      <c r="U36" s="78"/>
+      <c r="V36" s="78"/>
+      <c r="W36" s="78"/>
+      <c r="X36" s="78"/>
+      <c r="Y36" s="79"/>
+      <c r="Z36" s="80">
         <f>SUM(Z32:AD35)</f>
         <v>0</v>
       </c>
-      <c r="AA36" s="102"/>
-      <c r="AB36" s="102"/>
-      <c r="AC36" s="102"/>
-      <c r="AD36" s="103"/>
+      <c r="AA36" s="81"/>
+      <c r="AB36" s="81"/>
+      <c r="AC36" s="81"/>
+      <c r="AD36" s="82"/>
     </row>
     <row r="37" spans="2:30" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D37" s="49"/>
@@ -2863,189 +2862,189 @@
     <row r="39" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B39" s="4"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="77" t="s">
+      <c r="D39" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="79"/>
-      <c r="F39" s="69" t="s">
+      <c r="E39" s="64"/>
+      <c r="F39" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="G39" s="70"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="70"/>
-      <c r="J39" s="70"/>
-      <c r="K39" s="70"/>
-      <c r="L39" s="70"/>
-      <c r="M39" s="70"/>
-      <c r="N39" s="70"/>
-      <c r="O39" s="70"/>
-      <c r="P39" s="70"/>
-      <c r="Q39" s="70"/>
-      <c r="R39" s="70"/>
-      <c r="S39" s="70"/>
-      <c r="T39" s="70"/>
-      <c r="U39" s="70"/>
-      <c r="V39" s="70"/>
-      <c r="W39" s="70"/>
-      <c r="X39" s="70"/>
-      <c r="Y39" s="71"/>
-      <c r="Z39" s="77" t="s">
+      <c r="G39" s="73"/>
+      <c r="H39" s="73"/>
+      <c r="I39" s="73"/>
+      <c r="J39" s="73"/>
+      <c r="K39" s="73"/>
+      <c r="L39" s="73"/>
+      <c r="M39" s="73"/>
+      <c r="N39" s="73"/>
+      <c r="O39" s="73"/>
+      <c r="P39" s="73"/>
+      <c r="Q39" s="73"/>
+      <c r="R39" s="73"/>
+      <c r="S39" s="73"/>
+      <c r="T39" s="73"/>
+      <c r="U39" s="73"/>
+      <c r="V39" s="73"/>
+      <c r="W39" s="73"/>
+      <c r="X39" s="73"/>
+      <c r="Y39" s="74"/>
+      <c r="Z39" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="AA39" s="78"/>
-      <c r="AB39" s="78"/>
-      <c r="AC39" s="78"/>
-      <c r="AD39" s="79"/>
+      <c r="AA39" s="65"/>
+      <c r="AB39" s="65"/>
+      <c r="AC39" s="65"/>
+      <c r="AD39" s="64"/>
     </row>
     <row r="40" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D40" s="60"/>
       <c r="E40" s="62"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="73"/>
-      <c r="H40" s="73"/>
-      <c r="I40" s="73"/>
-      <c r="J40" s="73"/>
-      <c r="K40" s="73"/>
-      <c r="L40" s="73"/>
-      <c r="M40" s="73"/>
-      <c r="N40" s="73"/>
-      <c r="O40" s="73"/>
-      <c r="P40" s="73"/>
-      <c r="Q40" s="73"/>
-      <c r="R40" s="73"/>
-      <c r="S40" s="73"/>
-      <c r="T40" s="73"/>
-      <c r="U40" s="73"/>
-      <c r="V40" s="73"/>
-      <c r="W40" s="73"/>
-      <c r="X40" s="73"/>
-      <c r="Y40" s="74"/>
-      <c r="Z40" s="83"/>
-      <c r="AA40" s="84"/>
-      <c r="AB40" s="84"/>
-      <c r="AC40" s="84"/>
-      <c r="AD40" s="85"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="76"/>
+      <c r="I40" s="76"/>
+      <c r="J40" s="76"/>
+      <c r="K40" s="76"/>
+      <c r="L40" s="76"/>
+      <c r="M40" s="76"/>
+      <c r="N40" s="76"/>
+      <c r="O40" s="76"/>
+      <c r="P40" s="76"/>
+      <c r="Q40" s="76"/>
+      <c r="R40" s="76"/>
+      <c r="S40" s="76"/>
+      <c r="T40" s="76"/>
+      <c r="U40" s="76"/>
+      <c r="V40" s="76"/>
+      <c r="W40" s="76"/>
+      <c r="X40" s="76"/>
+      <c r="Y40" s="77"/>
+      <c r="Z40" s="68"/>
+      <c r="AA40" s="69"/>
+      <c r="AB40" s="69"/>
+      <c r="AC40" s="69"/>
+      <c r="AD40" s="70"/>
     </row>
     <row r="41" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D41" s="60"/>
       <c r="E41" s="62"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="73"/>
-      <c r="H41" s="73"/>
-      <c r="I41" s="73"/>
-      <c r="J41" s="73"/>
-      <c r="K41" s="73"/>
-      <c r="L41" s="73"/>
-      <c r="M41" s="73"/>
-      <c r="N41" s="73"/>
-      <c r="O41" s="73"/>
-      <c r="P41" s="73"/>
-      <c r="Q41" s="73"/>
-      <c r="R41" s="73"/>
-      <c r="S41" s="73"/>
-      <c r="T41" s="73"/>
-      <c r="U41" s="73"/>
-      <c r="V41" s="73"/>
-      <c r="W41" s="73"/>
-      <c r="X41" s="73"/>
-      <c r="Y41" s="74"/>
-      <c r="Z41" s="83"/>
-      <c r="AA41" s="84"/>
-      <c r="AB41" s="84"/>
-      <c r="AC41" s="84"/>
-      <c r="AD41" s="85"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="76"/>
+      <c r="J41" s="76"/>
+      <c r="K41" s="76"/>
+      <c r="L41" s="76"/>
+      <c r="M41" s="76"/>
+      <c r="N41" s="76"/>
+      <c r="O41" s="76"/>
+      <c r="P41" s="76"/>
+      <c r="Q41" s="76"/>
+      <c r="R41" s="76"/>
+      <c r="S41" s="76"/>
+      <c r="T41" s="76"/>
+      <c r="U41" s="76"/>
+      <c r="V41" s="76"/>
+      <c r="W41" s="76"/>
+      <c r="X41" s="76"/>
+      <c r="Y41" s="77"/>
+      <c r="Z41" s="68"/>
+      <c r="AA41" s="69"/>
+      <c r="AB41" s="69"/>
+      <c r="AC41" s="69"/>
+      <c r="AD41" s="70"/>
     </row>
     <row r="42" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D42" s="60"/>
       <c r="E42" s="62"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="73"/>
-      <c r="H42" s="73"/>
-      <c r="I42" s="73"/>
-      <c r="J42" s="73"/>
-      <c r="K42" s="73"/>
-      <c r="L42" s="73"/>
-      <c r="M42" s="73"/>
-      <c r="N42" s="73"/>
-      <c r="O42" s="73"/>
-      <c r="P42" s="73"/>
-      <c r="Q42" s="73"/>
-      <c r="R42" s="73"/>
-      <c r="S42" s="73"/>
-      <c r="T42" s="73"/>
-      <c r="U42" s="73"/>
-      <c r="V42" s="73"/>
-      <c r="W42" s="73"/>
-      <c r="X42" s="73"/>
-      <c r="Y42" s="74"/>
-      <c r="Z42" s="83"/>
-      <c r="AA42" s="84"/>
-      <c r="AB42" s="84"/>
-      <c r="AC42" s="84"/>
-      <c r="AD42" s="85"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="76"/>
+      <c r="J42" s="76"/>
+      <c r="K42" s="76"/>
+      <c r="L42" s="76"/>
+      <c r="M42" s="76"/>
+      <c r="N42" s="76"/>
+      <c r="O42" s="76"/>
+      <c r="P42" s="76"/>
+      <c r="Q42" s="76"/>
+      <c r="R42" s="76"/>
+      <c r="S42" s="76"/>
+      <c r="T42" s="76"/>
+      <c r="U42" s="76"/>
+      <c r="V42" s="76"/>
+      <c r="W42" s="76"/>
+      <c r="X42" s="76"/>
+      <c r="Y42" s="77"/>
+      <c r="Z42" s="68"/>
+      <c r="AA42" s="69"/>
+      <c r="AB42" s="69"/>
+      <c r="AC42" s="69"/>
+      <c r="AD42" s="70"/>
     </row>
     <row r="43" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D43" s="60"/>
       <c r="E43" s="62"/>
-      <c r="F43" s="72"/>
-      <c r="G43" s="73"/>
-      <c r="H43" s="73"/>
-      <c r="I43" s="73"/>
-      <c r="J43" s="73"/>
-      <c r="K43" s="73"/>
-      <c r="L43" s="73"/>
-      <c r="M43" s="73"/>
-      <c r="N43" s="73"/>
-      <c r="O43" s="73"/>
-      <c r="P43" s="73"/>
-      <c r="Q43" s="73"/>
-      <c r="R43" s="73"/>
-      <c r="S43" s="73"/>
-      <c r="T43" s="73"/>
-      <c r="U43" s="73"/>
-      <c r="V43" s="73"/>
-      <c r="W43" s="73"/>
-      <c r="X43" s="73"/>
-      <c r="Y43" s="74"/>
-      <c r="Z43" s="83"/>
-      <c r="AA43" s="84"/>
-      <c r="AB43" s="84"/>
-      <c r="AC43" s="84"/>
-      <c r="AD43" s="85"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="76"/>
+      <c r="J43" s="76"/>
+      <c r="K43" s="76"/>
+      <c r="L43" s="76"/>
+      <c r="M43" s="76"/>
+      <c r="N43" s="76"/>
+      <c r="O43" s="76"/>
+      <c r="P43" s="76"/>
+      <c r="Q43" s="76"/>
+      <c r="R43" s="76"/>
+      <c r="S43" s="76"/>
+      <c r="T43" s="76"/>
+      <c r="U43" s="76"/>
+      <c r="V43" s="76"/>
+      <c r="W43" s="76"/>
+      <c r="X43" s="76"/>
+      <c r="Y43" s="77"/>
+      <c r="Z43" s="68"/>
+      <c r="AA43" s="69"/>
+      <c r="AB43" s="69"/>
+      <c r="AC43" s="69"/>
+      <c r="AD43" s="70"/>
     </row>
     <row r="44" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D44" s="86" t="s">
+      <c r="D44" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="E44" s="86"/>
-      <c r="F44" s="86"/>
-      <c r="G44" s="86"/>
-      <c r="H44" s="86"/>
-      <c r="I44" s="86"/>
-      <c r="J44" s="86"/>
-      <c r="K44" s="86"/>
-      <c r="L44" s="86"/>
-      <c r="M44" s="86"/>
-      <c r="N44" s="86"/>
-      <c r="O44" s="86"/>
-      <c r="P44" s="86"/>
-      <c r="Q44" s="86"/>
-      <c r="R44" s="86"/>
-      <c r="S44" s="86"/>
-      <c r="T44" s="86"/>
-      <c r="U44" s="86"/>
-      <c r="V44" s="86"/>
-      <c r="W44" s="86"/>
-      <c r="X44" s="86"/>
-      <c r="Y44" s="87"/>
-      <c r="Z44" s="101">
+      <c r="E44" s="78"/>
+      <c r="F44" s="78"/>
+      <c r="G44" s="78"/>
+      <c r="H44" s="78"/>
+      <c r="I44" s="78"/>
+      <c r="J44" s="78"/>
+      <c r="K44" s="78"/>
+      <c r="L44" s="78"/>
+      <c r="M44" s="78"/>
+      <c r="N44" s="78"/>
+      <c r="O44" s="78"/>
+      <c r="P44" s="78"/>
+      <c r="Q44" s="78"/>
+      <c r="R44" s="78"/>
+      <c r="S44" s="78"/>
+      <c r="T44" s="78"/>
+      <c r="U44" s="78"/>
+      <c r="V44" s="78"/>
+      <c r="W44" s="78"/>
+      <c r="X44" s="78"/>
+      <c r="Y44" s="79"/>
+      <c r="Z44" s="80">
         <f>SUM(Z40:AD43)</f>
         <v>0</v>
       </c>
-      <c r="AA44" s="102"/>
-      <c r="AB44" s="102"/>
-      <c r="AC44" s="102"/>
-      <c r="AD44" s="103"/>
+      <c r="AA44" s="81"/>
+      <c r="AB44" s="81"/>
+      <c r="AC44" s="81"/>
+      <c r="AD44" s="82"/>
     </row>
     <row r="45" spans="2:30" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D45" s="49"/>
@@ -3112,10 +3111,10 @@
       <c r="AD46" s="7"/>
     </row>
     <row r="47" spans="2:30" s="2" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D47" s="77" t="s">
+      <c r="D47" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="79"/>
+      <c r="E47" s="64"/>
       <c r="F47" s="51" t="s">
         <v>9</v>
       </c>
@@ -3133,20 +3132,20 @@
       <c r="R47" s="52"/>
       <c r="S47" s="52"/>
       <c r="T47" s="52"/>
-      <c r="U47" s="104" t="s">
+      <c r="U47" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="V47" s="104"/>
-      <c r="W47" s="104"/>
-      <c r="X47" s="104"/>
-      <c r="Y47" s="104"/>
-      <c r="Z47" s="77" t="s">
+      <c r="V47" s="83"/>
+      <c r="W47" s="83"/>
+      <c r="X47" s="83"/>
+      <c r="Y47" s="83"/>
+      <c r="Z47" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="AA47" s="78"/>
-      <c r="AB47" s="78"/>
-      <c r="AC47" s="78"/>
-      <c r="AD47" s="79"/>
+      <c r="AA47" s="65"/>
+      <c r="AB47" s="65"/>
+      <c r="AC47" s="65"/>
+      <c r="AD47" s="64"/>
     </row>
     <row r="48" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D48" s="60"/>
@@ -3166,145 +3165,145 @@
       <c r="R48" s="54"/>
       <c r="S48" s="54"/>
       <c r="T48" s="55"/>
-      <c r="U48" s="72"/>
-      <c r="V48" s="73"/>
-      <c r="W48" s="73"/>
-      <c r="X48" s="73"/>
-      <c r="Y48" s="74"/>
-      <c r="Z48" s="83"/>
-      <c r="AA48" s="84"/>
-      <c r="AB48" s="84"/>
-      <c r="AC48" s="84"/>
-      <c r="AD48" s="85"/>
+      <c r="U48" s="75"/>
+      <c r="V48" s="76"/>
+      <c r="W48" s="76"/>
+      <c r="X48" s="76"/>
+      <c r="Y48" s="77"/>
+      <c r="Z48" s="68"/>
+      <c r="AA48" s="69"/>
+      <c r="AB48" s="69"/>
+      <c r="AC48" s="69"/>
+      <c r="AD48" s="70"/>
     </row>
     <row r="49" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D49" s="60"/>
       <c r="E49" s="62"/>
-      <c r="F49" s="72"/>
-      <c r="G49" s="73"/>
-      <c r="H49" s="73"/>
-      <c r="I49" s="73"/>
-      <c r="J49" s="73"/>
-      <c r="K49" s="73"/>
-      <c r="L49" s="73"/>
-      <c r="M49" s="73"/>
-      <c r="N49" s="73"/>
-      <c r="O49" s="73"/>
-      <c r="P49" s="73"/>
-      <c r="Q49" s="73"/>
-      <c r="R49" s="73"/>
-      <c r="S49" s="73"/>
-      <c r="T49" s="74"/>
-      <c r="U49" s="72"/>
-      <c r="V49" s="73"/>
-      <c r="W49" s="73"/>
-      <c r="X49" s="73"/>
-      <c r="Y49" s="74"/>
-      <c r="Z49" s="83"/>
-      <c r="AA49" s="84"/>
-      <c r="AB49" s="84"/>
-      <c r="AC49" s="84"/>
-      <c r="AD49" s="85"/>
+      <c r="F49" s="75"/>
+      <c r="G49" s="76"/>
+      <c r="H49" s="76"/>
+      <c r="I49" s="76"/>
+      <c r="J49" s="76"/>
+      <c r="K49" s="76"/>
+      <c r="L49" s="76"/>
+      <c r="M49" s="76"/>
+      <c r="N49" s="76"/>
+      <c r="O49" s="76"/>
+      <c r="P49" s="76"/>
+      <c r="Q49" s="76"/>
+      <c r="R49" s="76"/>
+      <c r="S49" s="76"/>
+      <c r="T49" s="77"/>
+      <c r="U49" s="75"/>
+      <c r="V49" s="76"/>
+      <c r="W49" s="76"/>
+      <c r="X49" s="76"/>
+      <c r="Y49" s="77"/>
+      <c r="Z49" s="68"/>
+      <c r="AA49" s="69"/>
+      <c r="AB49" s="69"/>
+      <c r="AC49" s="69"/>
+      <c r="AD49" s="70"/>
     </row>
     <row r="50" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D50" s="60"/>
       <c r="E50" s="62"/>
-      <c r="F50" s="72"/>
-      <c r="G50" s="73"/>
-      <c r="H50" s="73"/>
-      <c r="I50" s="73"/>
-      <c r="J50" s="73"/>
-      <c r="K50" s="73"/>
-      <c r="L50" s="73"/>
-      <c r="M50" s="73"/>
-      <c r="N50" s="73"/>
-      <c r="O50" s="73"/>
-      <c r="P50" s="73"/>
-      <c r="Q50" s="73"/>
-      <c r="R50" s="73"/>
-      <c r="S50" s="73"/>
-      <c r="T50" s="74"/>
-      <c r="U50" s="72"/>
-      <c r="V50" s="73"/>
-      <c r="W50" s="73"/>
-      <c r="X50" s="73"/>
-      <c r="Y50" s="74"/>
-      <c r="Z50" s="83"/>
-      <c r="AA50" s="84"/>
-      <c r="AB50" s="84"/>
-      <c r="AC50" s="84"/>
-      <c r="AD50" s="85"/>
+      <c r="F50" s="75"/>
+      <c r="G50" s="76"/>
+      <c r="H50" s="76"/>
+      <c r="I50" s="76"/>
+      <c r="J50" s="76"/>
+      <c r="K50" s="76"/>
+      <c r="L50" s="76"/>
+      <c r="M50" s="76"/>
+      <c r="N50" s="76"/>
+      <c r="O50" s="76"/>
+      <c r="P50" s="76"/>
+      <c r="Q50" s="76"/>
+      <c r="R50" s="76"/>
+      <c r="S50" s="76"/>
+      <c r="T50" s="77"/>
+      <c r="U50" s="75"/>
+      <c r="V50" s="76"/>
+      <c r="W50" s="76"/>
+      <c r="X50" s="76"/>
+      <c r="Y50" s="77"/>
+      <c r="Z50" s="68"/>
+      <c r="AA50" s="69"/>
+      <c r="AB50" s="69"/>
+      <c r="AC50" s="69"/>
+      <c r="AD50" s="70"/>
     </row>
     <row r="51" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D51" s="60"/>
       <c r="E51" s="62"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="73"/>
-      <c r="H51" s="73"/>
-      <c r="I51" s="73"/>
-      <c r="J51" s="73"/>
-      <c r="K51" s="73"/>
-      <c r="L51" s="73"/>
-      <c r="M51" s="73"/>
-      <c r="N51" s="73"/>
-      <c r="O51" s="73"/>
-      <c r="P51" s="73"/>
-      <c r="Q51" s="73"/>
-      <c r="R51" s="73"/>
-      <c r="S51" s="73"/>
-      <c r="T51" s="74"/>
-      <c r="U51" s="72"/>
-      <c r="V51" s="73"/>
-      <c r="W51" s="73"/>
-      <c r="X51" s="73"/>
-      <c r="Y51" s="74"/>
-      <c r="Z51" s="83"/>
-      <c r="AA51" s="84"/>
-      <c r="AB51" s="84"/>
-      <c r="AC51" s="84"/>
-      <c r="AD51" s="85"/>
+      <c r="F51" s="75"/>
+      <c r="G51" s="76"/>
+      <c r="H51" s="76"/>
+      <c r="I51" s="76"/>
+      <c r="J51" s="76"/>
+      <c r="K51" s="76"/>
+      <c r="L51" s="76"/>
+      <c r="M51" s="76"/>
+      <c r="N51" s="76"/>
+      <c r="O51" s="76"/>
+      <c r="P51" s="76"/>
+      <c r="Q51" s="76"/>
+      <c r="R51" s="76"/>
+      <c r="S51" s="76"/>
+      <c r="T51" s="77"/>
+      <c r="U51" s="75"/>
+      <c r="V51" s="76"/>
+      <c r="W51" s="76"/>
+      <c r="X51" s="76"/>
+      <c r="Y51" s="77"/>
+      <c r="Z51" s="68"/>
+      <c r="AA51" s="69"/>
+      <c r="AB51" s="69"/>
+      <c r="AC51" s="69"/>
+      <c r="AD51" s="70"/>
     </row>
     <row r="52" spans="1:31" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="4"/>
-      <c r="D52" s="86" t="s">
+      <c r="D52" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="E52" s="86"/>
-      <c r="F52" s="86"/>
-      <c r="G52" s="86"/>
-      <c r="H52" s="86"/>
-      <c r="I52" s="86"/>
-      <c r="J52" s="86"/>
-      <c r="K52" s="86"/>
-      <c r="L52" s="86"/>
-      <c r="M52" s="86"/>
-      <c r="N52" s="86"/>
-      <c r="O52" s="86"/>
-      <c r="P52" s="86"/>
-      <c r="Q52" s="86"/>
-      <c r="R52" s="86"/>
-      <c r="S52" s="86"/>
-      <c r="T52" s="86"/>
-      <c r="U52" s="86"/>
-      <c r="V52" s="86"/>
-      <c r="W52" s="86"/>
-      <c r="X52" s="86"/>
-      <c r="Y52" s="87"/>
-      <c r="Z52" s="101">
+      <c r="E52" s="78"/>
+      <c r="F52" s="78"/>
+      <c r="G52" s="78"/>
+      <c r="H52" s="78"/>
+      <c r="I52" s="78"/>
+      <c r="J52" s="78"/>
+      <c r="K52" s="78"/>
+      <c r="L52" s="78"/>
+      <c r="M52" s="78"/>
+      <c r="N52" s="78"/>
+      <c r="O52" s="78"/>
+      <c r="P52" s="78"/>
+      <c r="Q52" s="78"/>
+      <c r="R52" s="78"/>
+      <c r="S52" s="78"/>
+      <c r="T52" s="78"/>
+      <c r="U52" s="78"/>
+      <c r="V52" s="78"/>
+      <c r="W52" s="78"/>
+      <c r="X52" s="78"/>
+      <c r="Y52" s="79"/>
+      <c r="Z52" s="80">
         <f>SUM(Z48:AD51)</f>
         <v>0</v>
       </c>
-      <c r="AA52" s="102"/>
-      <c r="AB52" s="102"/>
-      <c r="AC52" s="102"/>
-      <c r="AD52" s="103"/>
+      <c r="AA52" s="81"/>
+      <c r="AB52" s="81"/>
+      <c r="AC52" s="81"/>
+      <c r="AD52" s="82"/>
     </row>
     <row r="53" spans="1:31" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="99">
+      <c r="B54" s="89">
         <v>2.0699999999999998</v>
       </c>
-      <c r="C54" s="99"/>
+      <c r="C54" s="89"/>
       <c r="D54" s="7" t="s">
         <v>1</v>
       </c>
@@ -3337,189 +3336,189 @@
     </row>
     <row r="55" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B55" s="4"/>
-      <c r="D55" s="77" t="s">
+      <c r="D55" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="E55" s="79"/>
-      <c r="F55" s="69" t="s">
+      <c r="E55" s="64"/>
+      <c r="F55" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="G55" s="70"/>
-      <c r="H55" s="70"/>
-      <c r="I55" s="70"/>
-      <c r="J55" s="70"/>
-      <c r="K55" s="70"/>
-      <c r="L55" s="70"/>
-      <c r="M55" s="70"/>
-      <c r="N55" s="70"/>
-      <c r="O55" s="70"/>
-      <c r="P55" s="70"/>
-      <c r="Q55" s="70"/>
-      <c r="R55" s="70"/>
-      <c r="S55" s="70"/>
-      <c r="T55" s="70"/>
-      <c r="U55" s="70"/>
-      <c r="V55" s="70"/>
-      <c r="W55" s="70"/>
-      <c r="X55" s="70"/>
-      <c r="Y55" s="71"/>
-      <c r="Z55" s="77" t="s">
+      <c r="G55" s="73"/>
+      <c r="H55" s="73"/>
+      <c r="I55" s="73"/>
+      <c r="J55" s="73"/>
+      <c r="K55" s="73"/>
+      <c r="L55" s="73"/>
+      <c r="M55" s="73"/>
+      <c r="N55" s="73"/>
+      <c r="O55" s="73"/>
+      <c r="P55" s="73"/>
+      <c r="Q55" s="73"/>
+      <c r="R55" s="73"/>
+      <c r="S55" s="73"/>
+      <c r="T55" s="73"/>
+      <c r="U55" s="73"/>
+      <c r="V55" s="73"/>
+      <c r="W55" s="73"/>
+      <c r="X55" s="73"/>
+      <c r="Y55" s="74"/>
+      <c r="Z55" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="AA55" s="78"/>
-      <c r="AB55" s="78"/>
-      <c r="AC55" s="78"/>
-      <c r="AD55" s="79"/>
+      <c r="AA55" s="65"/>
+      <c r="AB55" s="65"/>
+      <c r="AC55" s="65"/>
+      <c r="AD55" s="64"/>
     </row>
     <row r="56" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D56" s="60"/>
       <c r="E56" s="62"/>
-      <c r="F56" s="72"/>
-      <c r="G56" s="73"/>
-      <c r="H56" s="73"/>
-      <c r="I56" s="73"/>
-      <c r="J56" s="73"/>
-      <c r="K56" s="73"/>
-      <c r="L56" s="73"/>
-      <c r="M56" s="73"/>
-      <c r="N56" s="73"/>
-      <c r="O56" s="73"/>
-      <c r="P56" s="73"/>
-      <c r="Q56" s="73"/>
-      <c r="R56" s="73"/>
-      <c r="S56" s="73"/>
-      <c r="T56" s="73"/>
-      <c r="U56" s="73"/>
-      <c r="V56" s="73"/>
-      <c r="W56" s="73"/>
-      <c r="X56" s="73"/>
-      <c r="Y56" s="74"/>
-      <c r="Z56" s="83"/>
-      <c r="AA56" s="84"/>
-      <c r="AB56" s="84"/>
-      <c r="AC56" s="84"/>
-      <c r="AD56" s="85"/>
+      <c r="F56" s="75"/>
+      <c r="G56" s="76"/>
+      <c r="H56" s="76"/>
+      <c r="I56" s="76"/>
+      <c r="J56" s="76"/>
+      <c r="K56" s="76"/>
+      <c r="L56" s="76"/>
+      <c r="M56" s="76"/>
+      <c r="N56" s="76"/>
+      <c r="O56" s="76"/>
+      <c r="P56" s="76"/>
+      <c r="Q56" s="76"/>
+      <c r="R56" s="76"/>
+      <c r="S56" s="76"/>
+      <c r="T56" s="76"/>
+      <c r="U56" s="76"/>
+      <c r="V56" s="76"/>
+      <c r="W56" s="76"/>
+      <c r="X56" s="76"/>
+      <c r="Y56" s="77"/>
+      <c r="Z56" s="68"/>
+      <c r="AA56" s="69"/>
+      <c r="AB56" s="69"/>
+      <c r="AC56" s="69"/>
+      <c r="AD56" s="70"/>
     </row>
     <row r="57" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D57" s="60"/>
       <c r="E57" s="62"/>
-      <c r="F57" s="72"/>
-      <c r="G57" s="73"/>
-      <c r="H57" s="73"/>
-      <c r="I57" s="73"/>
-      <c r="J57" s="73"/>
-      <c r="K57" s="73"/>
-      <c r="L57" s="73"/>
-      <c r="M57" s="73"/>
-      <c r="N57" s="73"/>
-      <c r="O57" s="73"/>
-      <c r="P57" s="73"/>
-      <c r="Q57" s="73"/>
-      <c r="R57" s="73"/>
-      <c r="S57" s="73"/>
-      <c r="T57" s="73"/>
-      <c r="U57" s="73"/>
-      <c r="V57" s="73"/>
-      <c r="W57" s="73"/>
-      <c r="X57" s="73"/>
-      <c r="Y57" s="74"/>
-      <c r="Z57" s="83"/>
-      <c r="AA57" s="84"/>
-      <c r="AB57" s="84"/>
-      <c r="AC57" s="84"/>
-      <c r="AD57" s="85"/>
+      <c r="F57" s="75"/>
+      <c r="G57" s="76"/>
+      <c r="H57" s="76"/>
+      <c r="I57" s="76"/>
+      <c r="J57" s="76"/>
+      <c r="K57" s="76"/>
+      <c r="L57" s="76"/>
+      <c r="M57" s="76"/>
+      <c r="N57" s="76"/>
+      <c r="O57" s="76"/>
+      <c r="P57" s="76"/>
+      <c r="Q57" s="76"/>
+      <c r="R57" s="76"/>
+      <c r="S57" s="76"/>
+      <c r="T57" s="76"/>
+      <c r="U57" s="76"/>
+      <c r="V57" s="76"/>
+      <c r="W57" s="76"/>
+      <c r="X57" s="76"/>
+      <c r="Y57" s="77"/>
+      <c r="Z57" s="68"/>
+      <c r="AA57" s="69"/>
+      <c r="AB57" s="69"/>
+      <c r="AC57" s="69"/>
+      <c r="AD57" s="70"/>
     </row>
     <row r="58" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D58" s="60"/>
       <c r="E58" s="62"/>
-      <c r="F58" s="72"/>
-      <c r="G58" s="73"/>
-      <c r="H58" s="73"/>
-      <c r="I58" s="73"/>
-      <c r="J58" s="73"/>
-      <c r="K58" s="73"/>
-      <c r="L58" s="73"/>
-      <c r="M58" s="73"/>
-      <c r="N58" s="73"/>
-      <c r="O58" s="73"/>
-      <c r="P58" s="73"/>
-      <c r="Q58" s="73"/>
-      <c r="R58" s="73"/>
-      <c r="S58" s="73"/>
-      <c r="T58" s="73"/>
-      <c r="U58" s="73"/>
-      <c r="V58" s="73"/>
-      <c r="W58" s="73"/>
-      <c r="X58" s="73"/>
-      <c r="Y58" s="74"/>
-      <c r="Z58" s="83"/>
-      <c r="AA58" s="84"/>
-      <c r="AB58" s="84"/>
-      <c r="AC58" s="84"/>
-      <c r="AD58" s="85"/>
+      <c r="F58" s="75"/>
+      <c r="G58" s="76"/>
+      <c r="H58" s="76"/>
+      <c r="I58" s="76"/>
+      <c r="J58" s="76"/>
+      <c r="K58" s="76"/>
+      <c r="L58" s="76"/>
+      <c r="M58" s="76"/>
+      <c r="N58" s="76"/>
+      <c r="O58" s="76"/>
+      <c r="P58" s="76"/>
+      <c r="Q58" s="76"/>
+      <c r="R58" s="76"/>
+      <c r="S58" s="76"/>
+      <c r="T58" s="76"/>
+      <c r="U58" s="76"/>
+      <c r="V58" s="76"/>
+      <c r="W58" s="76"/>
+      <c r="X58" s="76"/>
+      <c r="Y58" s="77"/>
+      <c r="Z58" s="68"/>
+      <c r="AA58" s="69"/>
+      <c r="AB58" s="69"/>
+      <c r="AC58" s="69"/>
+      <c r="AD58" s="70"/>
     </row>
     <row r="59" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D59" s="60"/>
       <c r="E59" s="62"/>
-      <c r="F59" s="72"/>
-      <c r="G59" s="73"/>
-      <c r="H59" s="73"/>
-      <c r="I59" s="73"/>
-      <c r="J59" s="73"/>
-      <c r="K59" s="73"/>
-      <c r="L59" s="73"/>
-      <c r="M59" s="73"/>
-      <c r="N59" s="73"/>
-      <c r="O59" s="73"/>
-      <c r="P59" s="73"/>
-      <c r="Q59" s="73"/>
-      <c r="R59" s="73"/>
-      <c r="S59" s="73"/>
-      <c r="T59" s="73"/>
-      <c r="U59" s="73"/>
-      <c r="V59" s="73"/>
-      <c r="W59" s="73"/>
-      <c r="X59" s="73"/>
-      <c r="Y59" s="74"/>
-      <c r="Z59" s="83"/>
-      <c r="AA59" s="84"/>
-      <c r="AB59" s="84"/>
-      <c r="AC59" s="84"/>
-      <c r="AD59" s="85"/>
+      <c r="F59" s="75"/>
+      <c r="G59" s="76"/>
+      <c r="H59" s="76"/>
+      <c r="I59" s="76"/>
+      <c r="J59" s="76"/>
+      <c r="K59" s="76"/>
+      <c r="L59" s="76"/>
+      <c r="M59" s="76"/>
+      <c r="N59" s="76"/>
+      <c r="O59" s="76"/>
+      <c r="P59" s="76"/>
+      <c r="Q59" s="76"/>
+      <c r="R59" s="76"/>
+      <c r="S59" s="76"/>
+      <c r="T59" s="76"/>
+      <c r="U59" s="76"/>
+      <c r="V59" s="76"/>
+      <c r="W59" s="76"/>
+      <c r="X59" s="76"/>
+      <c r="Y59" s="77"/>
+      <c r="Z59" s="68"/>
+      <c r="AA59" s="69"/>
+      <c r="AB59" s="69"/>
+      <c r="AC59" s="69"/>
+      <c r="AD59" s="70"/>
     </row>
     <row r="60" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D60" s="86" t="s">
+      <c r="D60" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="E60" s="86"/>
-      <c r="F60" s="86"/>
-      <c r="G60" s="86"/>
-      <c r="H60" s="86"/>
-      <c r="I60" s="86"/>
-      <c r="J60" s="86"/>
-      <c r="K60" s="86"/>
-      <c r="L60" s="86"/>
-      <c r="M60" s="86"/>
-      <c r="N60" s="86"/>
-      <c r="O60" s="86"/>
-      <c r="P60" s="86"/>
-      <c r="Q60" s="86"/>
-      <c r="R60" s="86"/>
-      <c r="S60" s="86"/>
-      <c r="T60" s="86"/>
-      <c r="U60" s="86"/>
-      <c r="V60" s="86"/>
-      <c r="W60" s="86"/>
-      <c r="X60" s="86"/>
-      <c r="Y60" s="87"/>
-      <c r="Z60" s="101">
+      <c r="E60" s="78"/>
+      <c r="F60" s="78"/>
+      <c r="G60" s="78"/>
+      <c r="H60" s="78"/>
+      <c r="I60" s="78"/>
+      <c r="J60" s="78"/>
+      <c r="K60" s="78"/>
+      <c r="L60" s="78"/>
+      <c r="M60" s="78"/>
+      <c r="N60" s="78"/>
+      <c r="O60" s="78"/>
+      <c r="P60" s="78"/>
+      <c r="Q60" s="78"/>
+      <c r="R60" s="78"/>
+      <c r="S60" s="78"/>
+      <c r="T60" s="78"/>
+      <c r="U60" s="78"/>
+      <c r="V60" s="78"/>
+      <c r="W60" s="78"/>
+      <c r="X60" s="78"/>
+      <c r="Y60" s="79"/>
+      <c r="Z60" s="80">
         <f>SUM(Z56:AD59)</f>
         <v>0</v>
       </c>
-      <c r="AA60" s="102"/>
-      <c r="AB60" s="102"/>
-      <c r="AC60" s="102"/>
-      <c r="AD60" s="103"/>
+      <c r="AA60" s="81"/>
+      <c r="AB60" s="81"/>
+      <c r="AC60" s="81"/>
+      <c r="AD60" s="82"/>
     </row>
     <row r="61" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F61" s="6"/>
@@ -3550,39 +3549,39 @@
     </row>
     <row r="62" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
-      <c r="B62" s="99">
+      <c r="B62" s="89">
         <v>2.08</v>
       </c>
-      <c r="C62" s="99"/>
-      <c r="D62" s="100" t="s">
+      <c r="C62" s="89"/>
+      <c r="D62" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="E62" s="100"/>
-      <c r="F62" s="100"/>
-      <c r="G62" s="100"/>
-      <c r="H62" s="100"/>
-      <c r="I62" s="100"/>
-      <c r="J62" s="100"/>
-      <c r="K62" s="100"/>
-      <c r="L62" s="100"/>
-      <c r="M62" s="100"/>
-      <c r="N62" s="100"/>
-      <c r="O62" s="100"/>
-      <c r="P62" s="100"/>
-      <c r="Q62" s="100"/>
-      <c r="R62" s="100"/>
-      <c r="S62" s="100"/>
-      <c r="T62" s="100"/>
-      <c r="U62" s="100"/>
-      <c r="V62" s="100"/>
-      <c r="W62" s="100"/>
-      <c r="X62" s="100"/>
-      <c r="Y62" s="100"/>
-      <c r="Z62" s="100"/>
-      <c r="AA62" s="100"/>
-      <c r="AB62" s="100"/>
-      <c r="AC62" s="100"/>
-      <c r="AD62" s="100"/>
+      <c r="E62" s="90"/>
+      <c r="F62" s="90"/>
+      <c r="G62" s="90"/>
+      <c r="H62" s="90"/>
+      <c r="I62" s="90"/>
+      <c r="J62" s="90"/>
+      <c r="K62" s="90"/>
+      <c r="L62" s="90"/>
+      <c r="M62" s="90"/>
+      <c r="N62" s="90"/>
+      <c r="O62" s="90"/>
+      <c r="P62" s="90"/>
+      <c r="Q62" s="90"/>
+      <c r="R62" s="90"/>
+      <c r="S62" s="90"/>
+      <c r="T62" s="90"/>
+      <c r="U62" s="90"/>
+      <c r="V62" s="90"/>
+      <c r="W62" s="90"/>
+      <c r="X62" s="90"/>
+      <c r="Y62" s="90"/>
+      <c r="Z62" s="90"/>
+      <c r="AA62" s="90"/>
+      <c r="AB62" s="90"/>
+      <c r="AC62" s="90"/>
+      <c r="AD62" s="90"/>
       <c r="AE62" s="3"/>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.3">
@@ -3592,346 +3591,346 @@
       <c r="D63" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="E63" s="93"/>
-      <c r="F63" s="69" t="s">
+      <c r="E63" s="92"/>
+      <c r="F63" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="G63" s="70"/>
-      <c r="H63" s="70"/>
-      <c r="I63" s="70"/>
-      <c r="J63" s="70"/>
-      <c r="K63" s="70"/>
-      <c r="L63" s="70"/>
-      <c r="M63" s="70"/>
-      <c r="N63" s="70"/>
-      <c r="O63" s="70"/>
-      <c r="P63" s="70"/>
-      <c r="Q63" s="70"/>
-      <c r="R63" s="70"/>
-      <c r="S63" s="70"/>
-      <c r="T63" s="70"/>
-      <c r="U63" s="70"/>
-      <c r="V63" s="70"/>
-      <c r="W63" s="70"/>
-      <c r="X63" s="70"/>
-      <c r="Y63" s="71"/>
+      <c r="G63" s="73"/>
+      <c r="H63" s="73"/>
+      <c r="I63" s="73"/>
+      <c r="J63" s="73"/>
+      <c r="K63" s="73"/>
+      <c r="L63" s="73"/>
+      <c r="M63" s="73"/>
+      <c r="N63" s="73"/>
+      <c r="O63" s="73"/>
+      <c r="P63" s="73"/>
+      <c r="Q63" s="73"/>
+      <c r="R63" s="73"/>
+      <c r="S63" s="73"/>
+      <c r="T63" s="73"/>
+      <c r="U63" s="73"/>
+      <c r="V63" s="73"/>
+      <c r="W63" s="73"/>
+      <c r="X63" s="73"/>
+      <c r="Y63" s="74"/>
       <c r="Z63" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="AA63" s="92"/>
-      <c r="AB63" s="92"/>
-      <c r="AC63" s="92"/>
-      <c r="AD63" s="93"/>
+      <c r="AA63" s="96"/>
+      <c r="AB63" s="96"/>
+      <c r="AC63" s="96"/>
+      <c r="AD63" s="92"/>
       <c r="AE63" s="3"/>
     </row>
     <row r="64" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
       <c r="B64" s="4"/>
       <c r="C64" s="3"/>
-      <c r="D64" s="75">
+      <c r="D64" s="87">
         <v>1</v>
       </c>
-      <c r="E64" s="76"/>
-      <c r="F64" s="63" t="s">
+      <c r="E64" s="88"/>
+      <c r="F64" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="G64" s="64"/>
-      <c r="H64" s="64"/>
-      <c r="I64" s="64"/>
-      <c r="J64" s="64"/>
-      <c r="K64" s="64"/>
-      <c r="L64" s="64"/>
-      <c r="M64" s="64"/>
-      <c r="N64" s="64"/>
-      <c r="O64" s="64"/>
-      <c r="P64" s="64"/>
-      <c r="Q64" s="64"/>
-      <c r="R64" s="64"/>
-      <c r="S64" s="64"/>
-      <c r="T64" s="64"/>
-      <c r="U64" s="64"/>
-      <c r="V64" s="64"/>
-      <c r="W64" s="64"/>
-      <c r="X64" s="64"/>
-      <c r="Y64" s="65"/>
-      <c r="Z64" s="80">
+      <c r="G64" s="104"/>
+      <c r="H64" s="104"/>
+      <c r="I64" s="104"/>
+      <c r="J64" s="104"/>
+      <c r="K64" s="104"/>
+      <c r="L64" s="104"/>
+      <c r="M64" s="104"/>
+      <c r="N64" s="104"/>
+      <c r="O64" s="104"/>
+      <c r="P64" s="104"/>
+      <c r="Q64" s="104"/>
+      <c r="R64" s="104"/>
+      <c r="S64" s="104"/>
+      <c r="T64" s="104"/>
+      <c r="U64" s="104"/>
+      <c r="V64" s="104"/>
+      <c r="W64" s="104"/>
+      <c r="X64" s="104"/>
+      <c r="Y64" s="105"/>
+      <c r="Z64" s="100">
         <f>Z12</f>
         <v>0</v>
       </c>
-      <c r="AA64" s="81"/>
-      <c r="AB64" s="81"/>
-      <c r="AC64" s="81"/>
-      <c r="AD64" s="82"/>
+      <c r="AA64" s="101"/>
+      <c r="AB64" s="101"/>
+      <c r="AC64" s="101"/>
+      <c r="AD64" s="102"/>
       <c r="AE64" s="3"/>
     </row>
     <row r="65" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
       <c r="B65" s="4"/>
       <c r="C65" s="3"/>
-      <c r="D65" s="75">
+      <c r="D65" s="87">
         <v>2</v>
       </c>
-      <c r="E65" s="76"/>
-      <c r="F65" s="63" t="s">
+      <c r="E65" s="88"/>
+      <c r="F65" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="G65" s="64"/>
-      <c r="H65" s="64"/>
-      <c r="I65" s="64"/>
-      <c r="J65" s="64"/>
-      <c r="K65" s="64"/>
-      <c r="L65" s="64"/>
-      <c r="M65" s="64"/>
-      <c r="N65" s="64"/>
-      <c r="O65" s="64"/>
-      <c r="P65" s="64"/>
-      <c r="Q65" s="64"/>
-      <c r="R65" s="64"/>
-      <c r="S65" s="64"/>
-      <c r="T65" s="64"/>
-      <c r="U65" s="64"/>
-      <c r="V65" s="64"/>
-      <c r="W65" s="64"/>
-      <c r="X65" s="64"/>
-      <c r="Y65" s="65"/>
-      <c r="Z65" s="80">
+      <c r="G65" s="104"/>
+      <c r="H65" s="104"/>
+      <c r="I65" s="104"/>
+      <c r="J65" s="104"/>
+      <c r="K65" s="104"/>
+      <c r="L65" s="104"/>
+      <c r="M65" s="104"/>
+      <c r="N65" s="104"/>
+      <c r="O65" s="104"/>
+      <c r="P65" s="104"/>
+      <c r="Q65" s="104"/>
+      <c r="R65" s="104"/>
+      <c r="S65" s="104"/>
+      <c r="T65" s="104"/>
+      <c r="U65" s="104"/>
+      <c r="V65" s="104"/>
+      <c r="W65" s="104"/>
+      <c r="X65" s="104"/>
+      <c r="Y65" s="105"/>
+      <c r="Z65" s="100">
         <f>Z18</f>
         <v>0</v>
       </c>
-      <c r="AA65" s="81"/>
-      <c r="AB65" s="81"/>
-      <c r="AC65" s="81"/>
-      <c r="AD65" s="82"/>
+      <c r="AA65" s="101"/>
+      <c r="AB65" s="101"/>
+      <c r="AC65" s="101"/>
+      <c r="AD65" s="102"/>
       <c r="AE65" s="3"/>
     </row>
     <row r="66" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
       <c r="B66" s="4"/>
       <c r="C66" s="3"/>
-      <c r="D66" s="75">
+      <c r="D66" s="87">
         <v>3</v>
       </c>
-      <c r="E66" s="76"/>
-      <c r="F66" s="63" t="s">
+      <c r="E66" s="88"/>
+      <c r="F66" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="G66" s="64"/>
-      <c r="H66" s="64"/>
-      <c r="I66" s="64"/>
-      <c r="J66" s="64"/>
-      <c r="K66" s="64"/>
-      <c r="L66" s="64"/>
-      <c r="M66" s="64"/>
-      <c r="N66" s="64"/>
-      <c r="O66" s="64"/>
-      <c r="P66" s="64"/>
-      <c r="Q66" s="64"/>
-      <c r="R66" s="64"/>
-      <c r="S66" s="64"/>
-      <c r="T66" s="64"/>
-      <c r="U66" s="64"/>
-      <c r="V66" s="64"/>
-      <c r="W66" s="64"/>
-      <c r="X66" s="64"/>
-      <c r="Y66" s="65"/>
-      <c r="Z66" s="80">
+      <c r="G66" s="104"/>
+      <c r="H66" s="104"/>
+      <c r="I66" s="104"/>
+      <c r="J66" s="104"/>
+      <c r="K66" s="104"/>
+      <c r="L66" s="104"/>
+      <c r="M66" s="104"/>
+      <c r="N66" s="104"/>
+      <c r="O66" s="104"/>
+      <c r="P66" s="104"/>
+      <c r="Q66" s="104"/>
+      <c r="R66" s="104"/>
+      <c r="S66" s="104"/>
+      <c r="T66" s="104"/>
+      <c r="U66" s="104"/>
+      <c r="V66" s="104"/>
+      <c r="W66" s="104"/>
+      <c r="X66" s="104"/>
+      <c r="Y66" s="105"/>
+      <c r="Z66" s="100">
         <f>Z27</f>
         <v>0</v>
       </c>
-      <c r="AA66" s="81"/>
-      <c r="AB66" s="81"/>
-      <c r="AC66" s="81"/>
-      <c r="AD66" s="82"/>
+      <c r="AA66" s="101"/>
+      <c r="AB66" s="101"/>
+      <c r="AC66" s="101"/>
+      <c r="AD66" s="102"/>
       <c r="AE66" s="3"/>
     </row>
     <row r="67" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
       <c r="B67" s="4"/>
       <c r="C67" s="3"/>
-      <c r="D67" s="75">
+      <c r="D67" s="87">
         <v>4</v>
       </c>
-      <c r="E67" s="76"/>
-      <c r="F67" s="63" t="s">
+      <c r="E67" s="88"/>
+      <c r="F67" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="G67" s="64"/>
-      <c r="H67" s="64"/>
-      <c r="I67" s="64"/>
-      <c r="J67" s="64"/>
-      <c r="K67" s="64"/>
-      <c r="L67" s="64"/>
-      <c r="M67" s="64"/>
-      <c r="N67" s="64"/>
-      <c r="O67" s="64"/>
-      <c r="P67" s="64"/>
-      <c r="Q67" s="64"/>
-      <c r="R67" s="64"/>
-      <c r="S67" s="64"/>
-      <c r="T67" s="64"/>
-      <c r="U67" s="64"/>
-      <c r="V67" s="64"/>
-      <c r="W67" s="64"/>
-      <c r="X67" s="64"/>
-      <c r="Y67" s="65"/>
-      <c r="Z67" s="80">
+      <c r="G67" s="104"/>
+      <c r="H67" s="104"/>
+      <c r="I67" s="104"/>
+      <c r="J67" s="104"/>
+      <c r="K67" s="104"/>
+      <c r="L67" s="104"/>
+      <c r="M67" s="104"/>
+      <c r="N67" s="104"/>
+      <c r="O67" s="104"/>
+      <c r="P67" s="104"/>
+      <c r="Q67" s="104"/>
+      <c r="R67" s="104"/>
+      <c r="S67" s="104"/>
+      <c r="T67" s="104"/>
+      <c r="U67" s="104"/>
+      <c r="V67" s="104"/>
+      <c r="W67" s="104"/>
+      <c r="X67" s="104"/>
+      <c r="Y67" s="105"/>
+      <c r="Z67" s="100">
         <f>Z36</f>
         <v>0</v>
       </c>
-      <c r="AA67" s="81"/>
-      <c r="AB67" s="81"/>
-      <c r="AC67" s="81"/>
-      <c r="AD67" s="82"/>
+      <c r="AA67" s="101"/>
+      <c r="AB67" s="101"/>
+      <c r="AC67" s="101"/>
+      <c r="AD67" s="102"/>
       <c r="AE67" s="3"/>
     </row>
     <row r="68" spans="1:31" s="2" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
       <c r="B68" s="4"/>
       <c r="C68" s="3"/>
-      <c r="D68" s="75">
+      <c r="D68" s="87">
         <v>5</v>
       </c>
-      <c r="E68" s="76"/>
-      <c r="F68" s="63" t="s">
+      <c r="E68" s="88"/>
+      <c r="F68" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="G68" s="64"/>
-      <c r="H68" s="64"/>
-      <c r="I68" s="64"/>
-      <c r="J68" s="64"/>
-      <c r="K68" s="64"/>
-      <c r="L68" s="64"/>
-      <c r="M68" s="64"/>
-      <c r="N68" s="64"/>
-      <c r="O68" s="64"/>
-      <c r="P68" s="64"/>
-      <c r="Q68" s="64"/>
-      <c r="R68" s="64"/>
-      <c r="S68" s="64"/>
-      <c r="T68" s="64"/>
-      <c r="U68" s="64"/>
-      <c r="V68" s="64"/>
-      <c r="W68" s="64"/>
-      <c r="X68" s="64"/>
-      <c r="Y68" s="65"/>
-      <c r="Z68" s="88">
+      <c r="G68" s="104"/>
+      <c r="H68" s="104"/>
+      <c r="I68" s="104"/>
+      <c r="J68" s="104"/>
+      <c r="K68" s="104"/>
+      <c r="L68" s="104"/>
+      <c r="M68" s="104"/>
+      <c r="N68" s="104"/>
+      <c r="O68" s="104"/>
+      <c r="P68" s="104"/>
+      <c r="Q68" s="104"/>
+      <c r="R68" s="104"/>
+      <c r="S68" s="104"/>
+      <c r="T68" s="104"/>
+      <c r="U68" s="104"/>
+      <c r="V68" s="104"/>
+      <c r="W68" s="104"/>
+      <c r="X68" s="104"/>
+      <c r="Y68" s="105"/>
+      <c r="Z68" s="93">
         <f>Z44</f>
         <v>0</v>
       </c>
-      <c r="AA68" s="89"/>
-      <c r="AB68" s="89"/>
-      <c r="AC68" s="89"/>
-      <c r="AD68" s="90"/>
+      <c r="AA68" s="94"/>
+      <c r="AB68" s="94"/>
+      <c r="AC68" s="94"/>
+      <c r="AD68" s="95"/>
       <c r="AE68" s="3"/>
     </row>
     <row r="69" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
       <c r="B69" s="4"/>
       <c r="C69" s="3"/>
-      <c r="D69" s="75">
+      <c r="D69" s="87">
         <v>6</v>
       </c>
-      <c r="E69" s="76"/>
-      <c r="F69" s="63" t="s">
+      <c r="E69" s="88"/>
+      <c r="F69" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="G69" s="64"/>
-      <c r="H69" s="64"/>
-      <c r="I69" s="64"/>
-      <c r="J69" s="64"/>
-      <c r="K69" s="64"/>
-      <c r="L69" s="64"/>
-      <c r="M69" s="64"/>
-      <c r="N69" s="64"/>
-      <c r="O69" s="64"/>
-      <c r="P69" s="64"/>
-      <c r="Q69" s="64"/>
-      <c r="R69" s="64"/>
-      <c r="S69" s="64"/>
-      <c r="T69" s="64"/>
-      <c r="U69" s="64"/>
-      <c r="V69" s="64"/>
-      <c r="W69" s="64"/>
-      <c r="X69" s="64"/>
-      <c r="Y69" s="65"/>
-      <c r="Z69" s="80">
+      <c r="G69" s="104"/>
+      <c r="H69" s="104"/>
+      <c r="I69" s="104"/>
+      <c r="J69" s="104"/>
+      <c r="K69" s="104"/>
+      <c r="L69" s="104"/>
+      <c r="M69" s="104"/>
+      <c r="N69" s="104"/>
+      <c r="O69" s="104"/>
+      <c r="P69" s="104"/>
+      <c r="Q69" s="104"/>
+      <c r="R69" s="104"/>
+      <c r="S69" s="104"/>
+      <c r="T69" s="104"/>
+      <c r="U69" s="104"/>
+      <c r="V69" s="104"/>
+      <c r="W69" s="104"/>
+      <c r="X69" s="104"/>
+      <c r="Y69" s="105"/>
+      <c r="Z69" s="100">
         <f>Z52</f>
         <v>0</v>
       </c>
-      <c r="AA69" s="81"/>
-      <c r="AB69" s="81"/>
-      <c r="AC69" s="81"/>
-      <c r="AD69" s="82"/>
+      <c r="AA69" s="101"/>
+      <c r="AB69" s="101"/>
+      <c r="AC69" s="101"/>
+      <c r="AD69" s="102"/>
     </row>
     <row r="70" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D70" s="75">
+      <c r="D70" s="87">
         <v>7</v>
       </c>
-      <c r="E70" s="76"/>
-      <c r="F70" s="63" t="s">
+      <c r="E70" s="88"/>
+      <c r="F70" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="G70" s="64"/>
-      <c r="H70" s="64"/>
-      <c r="I70" s="64"/>
-      <c r="J70" s="64"/>
-      <c r="K70" s="64"/>
-      <c r="L70" s="64"/>
-      <c r="M70" s="64"/>
-      <c r="N70" s="64"/>
-      <c r="O70" s="64"/>
-      <c r="P70" s="64"/>
-      <c r="Q70" s="64"/>
-      <c r="R70" s="64"/>
-      <c r="S70" s="64"/>
-      <c r="T70" s="64"/>
-      <c r="U70" s="64"/>
-      <c r="V70" s="64"/>
-      <c r="W70" s="64"/>
-      <c r="X70" s="64"/>
-      <c r="Y70" s="65"/>
-      <c r="Z70" s="80">
+      <c r="G70" s="104"/>
+      <c r="H70" s="104"/>
+      <c r="I70" s="104"/>
+      <c r="J70" s="104"/>
+      <c r="K70" s="104"/>
+      <c r="L70" s="104"/>
+      <c r="M70" s="104"/>
+      <c r="N70" s="104"/>
+      <c r="O70" s="104"/>
+      <c r="P70" s="104"/>
+      <c r="Q70" s="104"/>
+      <c r="R70" s="104"/>
+      <c r="S70" s="104"/>
+      <c r="T70" s="104"/>
+      <c r="U70" s="104"/>
+      <c r="V70" s="104"/>
+      <c r="W70" s="104"/>
+      <c r="X70" s="104"/>
+      <c r="Y70" s="105"/>
+      <c r="Z70" s="100">
         <f>Z60</f>
         <v>0</v>
       </c>
-      <c r="AA70" s="81"/>
-      <c r="AB70" s="81"/>
-      <c r="AC70" s="81"/>
-      <c r="AD70" s="82"/>
+      <c r="AA70" s="101"/>
+      <c r="AB70" s="101"/>
+      <c r="AC70" s="101"/>
+      <c r="AD70" s="102"/>
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="D71" s="66" t="s">
+      <c r="D71" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="E71" s="67"/>
-      <c r="F71" s="67"/>
-      <c r="G71" s="67"/>
-      <c r="H71" s="67"/>
-      <c r="I71" s="67"/>
-      <c r="J71" s="67"/>
-      <c r="K71" s="67"/>
-      <c r="L71" s="67"/>
-      <c r="M71" s="67"/>
-      <c r="N71" s="67"/>
-      <c r="O71" s="67"/>
-      <c r="P71" s="67"/>
-      <c r="Q71" s="67"/>
-      <c r="R71" s="67"/>
-      <c r="S71" s="67"/>
-      <c r="T71" s="67"/>
-      <c r="U71" s="67"/>
-      <c r="V71" s="67"/>
-      <c r="W71" s="67"/>
-      <c r="X71" s="67"/>
-      <c r="Y71" s="68"/>
-      <c r="Z71" s="94">
+      <c r="E71" s="107"/>
+      <c r="F71" s="107"/>
+      <c r="G71" s="107"/>
+      <c r="H71" s="107"/>
+      <c r="I71" s="107"/>
+      <c r="J71" s="107"/>
+      <c r="K71" s="107"/>
+      <c r="L71" s="107"/>
+      <c r="M71" s="107"/>
+      <c r="N71" s="107"/>
+      <c r="O71" s="107"/>
+      <c r="P71" s="107"/>
+      <c r="Q71" s="107"/>
+      <c r="R71" s="107"/>
+      <c r="S71" s="107"/>
+      <c r="T71" s="107"/>
+      <c r="U71" s="107"/>
+      <c r="V71" s="107"/>
+      <c r="W71" s="107"/>
+      <c r="X71" s="107"/>
+      <c r="Y71" s="108"/>
+      <c r="Z71" s="97">
         <f>SUM(Z64:AD70)</f>
         <v>0</v>
       </c>
-      <c r="AA71" s="95"/>
-      <c r="AB71" s="95"/>
-      <c r="AC71" s="95"/>
-      <c r="AD71" s="96"/>
+      <c r="AA71" s="98"/>
+      <c r="AB71" s="98"/>
+      <c r="AC71" s="98"/>
+      <c r="AD71" s="99"/>
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.3">
       <c r="D72" s="2"/>
@@ -3963,35 +3962,105 @@
     </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="Z7:AD7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="Z8:AD8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="Z9:AD9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B3:AD3"/>
-    <mergeCell ref="Z10:AD10"/>
-    <mergeCell ref="F7:Y7"/>
-    <mergeCell ref="F8:Y8"/>
-    <mergeCell ref="F9:Y9"/>
-    <mergeCell ref="F10:Y10"/>
-    <mergeCell ref="D12:Y12"/>
-    <mergeCell ref="Z12:AD12"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="Z52:AD52"/>
-    <mergeCell ref="Z16:AD16"/>
-    <mergeCell ref="Z17:AD17"/>
-    <mergeCell ref="Z24:AD24"/>
-    <mergeCell ref="Z27:AD27"/>
-    <mergeCell ref="Z34:AD34"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D52:Y52"/>
-    <mergeCell ref="F35:Y35"/>
-    <mergeCell ref="F51:T51"/>
+    <mergeCell ref="F66:Y66"/>
+    <mergeCell ref="F67:Y67"/>
+    <mergeCell ref="F68:Y68"/>
+    <mergeCell ref="F69:Y69"/>
+    <mergeCell ref="F70:Y70"/>
+    <mergeCell ref="D71:Y71"/>
+    <mergeCell ref="F55:Y55"/>
+    <mergeCell ref="F56:Y56"/>
+    <mergeCell ref="F57:Y57"/>
+    <mergeCell ref="F58:Y58"/>
+    <mergeCell ref="F59:Y59"/>
+    <mergeCell ref="F63:Y63"/>
+    <mergeCell ref="F64:Y64"/>
+    <mergeCell ref="F65:Y65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="Z39:AD39"/>
+    <mergeCell ref="F39:Y39"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="Z69:AD69"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="Z51:AD51"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="Z49:AD49"/>
+    <mergeCell ref="Z50:AD50"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="Z47:AD47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="Z48:AD48"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="Z40:AD40"/>
+    <mergeCell ref="Z41:AD41"/>
+    <mergeCell ref="Z42:AD42"/>
+    <mergeCell ref="Z43:AD43"/>
+    <mergeCell ref="D44:Y44"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="Z33:AD33"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="Z31:AD31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="Z32:AD32"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="Z25:AD25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="Z26:AD26"/>
+    <mergeCell ref="Z22:AD22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="Z23:AD23"/>
+    <mergeCell ref="F22:Y22"/>
+    <mergeCell ref="F23:Y23"/>
+    <mergeCell ref="F24:Y24"/>
+    <mergeCell ref="F25:Y25"/>
+    <mergeCell ref="F26:Y26"/>
+    <mergeCell ref="F31:Y31"/>
+    <mergeCell ref="F32:Y32"/>
+    <mergeCell ref="F33:Y33"/>
+    <mergeCell ref="Z57:AD57"/>
+    <mergeCell ref="Z68:AD68"/>
+    <mergeCell ref="Z55:AD55"/>
+    <mergeCell ref="Z63:AD63"/>
+    <mergeCell ref="Z71:AD71"/>
+    <mergeCell ref="Z70:AD70"/>
+    <mergeCell ref="Z67:AD67"/>
+    <mergeCell ref="Z66:AD66"/>
+    <mergeCell ref="Z65:AD65"/>
+    <mergeCell ref="Z64:AD64"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="Z15:AD15"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D27:Y27"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:Y60"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:AD62"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="Z56:AD56"/>
+    <mergeCell ref="Z60:AD60"/>
+    <mergeCell ref="Z59:AD59"/>
+    <mergeCell ref="Z58:AD58"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="Z11:AD11"/>
     <mergeCell ref="U47:Y47"/>
@@ -4016,112 +4085,41 @@
     <mergeCell ref="F17:Y17"/>
     <mergeCell ref="D18:Y18"/>
     <mergeCell ref="F34:Y34"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="Z15:AD15"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D27:Y27"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:Y60"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:AD62"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="Z56:AD56"/>
-    <mergeCell ref="Z60:AD60"/>
-    <mergeCell ref="Z59:AD59"/>
-    <mergeCell ref="Z58:AD58"/>
-    <mergeCell ref="Z57:AD57"/>
-    <mergeCell ref="Z68:AD68"/>
-    <mergeCell ref="Z55:AD55"/>
-    <mergeCell ref="Z63:AD63"/>
-    <mergeCell ref="Z71:AD71"/>
-    <mergeCell ref="Z70:AD70"/>
-    <mergeCell ref="Z67:AD67"/>
-    <mergeCell ref="Z66:AD66"/>
-    <mergeCell ref="Z65:AD65"/>
-    <mergeCell ref="Z64:AD64"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="Z33:AD33"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="Z31:AD31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="Z32:AD32"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="Z25:AD25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="Z26:AD26"/>
-    <mergeCell ref="Z22:AD22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="Z23:AD23"/>
-    <mergeCell ref="F22:Y22"/>
-    <mergeCell ref="F23:Y23"/>
-    <mergeCell ref="F24:Y24"/>
-    <mergeCell ref="F25:Y25"/>
-    <mergeCell ref="F26:Y26"/>
-    <mergeCell ref="F31:Y31"/>
-    <mergeCell ref="F32:Y32"/>
-    <mergeCell ref="F33:Y33"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="Z39:AD39"/>
-    <mergeCell ref="F39:Y39"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="Z69:AD69"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="Z51:AD51"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="Z49:AD49"/>
-    <mergeCell ref="Z50:AD50"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="Z47:AD47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="Z48:AD48"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="Z40:AD40"/>
-    <mergeCell ref="Z41:AD41"/>
-    <mergeCell ref="Z42:AD42"/>
-    <mergeCell ref="Z43:AD43"/>
-    <mergeCell ref="D44:Y44"/>
-    <mergeCell ref="F66:Y66"/>
-    <mergeCell ref="F67:Y67"/>
-    <mergeCell ref="F68:Y68"/>
-    <mergeCell ref="F69:Y69"/>
-    <mergeCell ref="F70:Y70"/>
-    <mergeCell ref="D71:Y71"/>
-    <mergeCell ref="F55:Y55"/>
-    <mergeCell ref="F56:Y56"/>
-    <mergeCell ref="F57:Y57"/>
-    <mergeCell ref="F58:Y58"/>
-    <mergeCell ref="F59:Y59"/>
-    <mergeCell ref="F63:Y63"/>
-    <mergeCell ref="F64:Y64"/>
-    <mergeCell ref="F65:Y65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D12:Y12"/>
+    <mergeCell ref="Z12:AD12"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="Z52:AD52"/>
+    <mergeCell ref="Z16:AD16"/>
+    <mergeCell ref="Z17:AD17"/>
+    <mergeCell ref="Z24:AD24"/>
+    <mergeCell ref="Z27:AD27"/>
+    <mergeCell ref="Z34:AD34"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D52:Y52"/>
+    <mergeCell ref="F35:Y35"/>
+    <mergeCell ref="F51:T51"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="Z7:AD7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="Z8:AD8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="Z9:AD9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B3:AD3"/>
+    <mergeCell ref="Z10:AD10"/>
+    <mergeCell ref="F7:Y7"/>
+    <mergeCell ref="F8:Y8"/>
+    <mergeCell ref="F9:Y9"/>
+    <mergeCell ref="F10:Y10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"-,Bold"Singapore Tourism Board 
-Tourism Product Development Fund (TPDF)</oddHeader>
-    <oddFooter>&amp;L&amp;"-,Regular"[Ver. 02.05.19]&amp;C&amp;"-,Regular"Confidential&amp;R&amp;"-,Regular"Pg &amp;P of &amp;N</oddFooter>
+    <oddHeader>&amp;C&amp;"-,Bold"SG Eco Fund</oddHeader>
+    <oddFooter>&amp;L[Ver. 25.11.20]&amp;CConfidential&amp;RPg &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="45" max="30" man="1"/>
@@ -4134,7 +4132,7 @@
   <dimension ref="A1:AG25"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:AD3"/>
+      <selection activeCell="F10" sqref="F10:Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -4366,71 +4364,71 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="28"/>
-      <c r="D8" s="77" t="s">
+      <c r="D8" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="79"/>
-      <c r="F8" s="69" t="s">
+      <c r="E8" s="64"/>
+      <c r="F8" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="70"/>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="70"/>
-      <c r="S8" s="70"/>
-      <c r="T8" s="70"/>
-      <c r="U8" s="70"/>
-      <c r="V8" s="70"/>
-      <c r="W8" s="70"/>
-      <c r="X8" s="70"/>
-      <c r="Y8" s="71"/>
-      <c r="Z8" s="77" t="s">
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="73"/>
+      <c r="S8" s="73"/>
+      <c r="T8" s="73"/>
+      <c r="U8" s="73"/>
+      <c r="V8" s="73"/>
+      <c r="W8" s="73"/>
+      <c r="X8" s="73"/>
+      <c r="Y8" s="74"/>
+      <c r="Z8" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="AA8" s="78"/>
-      <c r="AB8" s="78"/>
-      <c r="AC8" s="78"/>
-      <c r="AD8" s="79"/>
+      <c r="AA8" s="65"/>
+      <c r="AB8" s="65"/>
+      <c r="AC8" s="65"/>
+      <c r="AD8" s="64"/>
       <c r="AE8" s="28"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="73"/>
-      <c r="T9" s="73"/>
-      <c r="U9" s="73"/>
-      <c r="V9" s="73"/>
-      <c r="W9" s="73"/>
-      <c r="X9" s="73"/>
-      <c r="Y9" s="74"/>
-      <c r="Z9" s="83"/>
-      <c r="AA9" s="84"/>
-      <c r="AB9" s="84"/>
-      <c r="AC9" s="84"/>
-      <c r="AD9" s="85"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="76"/>
+      <c r="S9" s="76"/>
+      <c r="T9" s="76"/>
+      <c r="U9" s="76"/>
+      <c r="V9" s="76"/>
+      <c r="W9" s="76"/>
+      <c r="X9" s="76"/>
+      <c r="Y9" s="77"/>
+      <c r="Z9" s="68"/>
+      <c r="AA9" s="69"/>
+      <c r="AB9" s="69"/>
+      <c r="AC9" s="69"/>
+      <c r="AD9" s="70"/>
       <c r="AG9" s="29"/>
     </row>
     <row r="10" spans="1:33" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -4439,31 +4437,31 @@
       <c r="C10" s="2"/>
       <c r="D10" s="60"/>
       <c r="E10" s="62"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="73"/>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="73"/>
-      <c r="S10" s="73"/>
-      <c r="T10" s="73"/>
-      <c r="U10" s="73"/>
-      <c r="V10" s="73"/>
-      <c r="W10" s="73"/>
-      <c r="X10" s="73"/>
-      <c r="Y10" s="74"/>
-      <c r="Z10" s="83"/>
-      <c r="AA10" s="84"/>
-      <c r="AB10" s="84"/>
-      <c r="AC10" s="84"/>
-      <c r="AD10" s="85"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="76"/>
+      <c r="S10" s="76"/>
+      <c r="T10" s="76"/>
+      <c r="U10" s="76"/>
+      <c r="V10" s="76"/>
+      <c r="W10" s="76"/>
+      <c r="X10" s="76"/>
+      <c r="Y10" s="77"/>
+      <c r="Z10" s="68"/>
+      <c r="AA10" s="69"/>
+      <c r="AB10" s="69"/>
+      <c r="AC10" s="69"/>
+      <c r="AD10" s="70"/>
       <c r="AE10" s="3"/>
       <c r="AG10" s="3"/>
     </row>
@@ -4471,38 +4469,38 @@
       <c r="A11" s="3"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="86" t="s">
+      <c r="D11" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="86"/>
-      <c r="O11" s="86"/>
-      <c r="P11" s="86"/>
-      <c r="Q11" s="86"/>
-      <c r="R11" s="86"/>
-      <c r="S11" s="86"/>
-      <c r="T11" s="86"/>
-      <c r="U11" s="86"/>
-      <c r="V11" s="86"/>
-      <c r="W11" s="86"/>
-      <c r="X11" s="86"/>
-      <c r="Y11" s="87"/>
-      <c r="Z11" s="101">
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="78"/>
+      <c r="P11" s="78"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="78"/>
+      <c r="S11" s="78"/>
+      <c r="T11" s="78"/>
+      <c r="U11" s="78"/>
+      <c r="V11" s="78"/>
+      <c r="W11" s="78"/>
+      <c r="X11" s="78"/>
+      <c r="Y11" s="79"/>
+      <c r="Z11" s="80">
         <f>SUM(Z9:AD10)</f>
         <v>0</v>
       </c>
-      <c r="AA11" s="102"/>
-      <c r="AB11" s="102"/>
-      <c r="AC11" s="102"/>
-      <c r="AD11" s="103"/>
+      <c r="AA11" s="81"/>
+      <c r="AB11" s="81"/>
+      <c r="AC11" s="81"/>
+      <c r="AD11" s="82"/>
       <c r="AE11" s="3"/>
       <c r="AG11" s="3"/>
     </row>
@@ -4608,138 +4606,138 @@
       <c r="AG14" s="27"/>
     </row>
     <row r="15" spans="1:33" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="77" t="s">
+      <c r="D15" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="79"/>
-      <c r="F15" s="69" t="s">
+      <c r="E15" s="64"/>
+      <c r="F15" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="70"/>
-      <c r="R15" s="70"/>
-      <c r="S15" s="70"/>
-      <c r="T15" s="70"/>
-      <c r="U15" s="70"/>
-      <c r="V15" s="70"/>
-      <c r="W15" s="70"/>
-      <c r="X15" s="70"/>
-      <c r="Y15" s="71"/>
-      <c r="Z15" s="77" t="s">
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="73"/>
+      <c r="Q15" s="73"/>
+      <c r="R15" s="73"/>
+      <c r="S15" s="73"/>
+      <c r="T15" s="73"/>
+      <c r="U15" s="73"/>
+      <c r="V15" s="73"/>
+      <c r="W15" s="73"/>
+      <c r="X15" s="73"/>
+      <c r="Y15" s="74"/>
+      <c r="Z15" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="AA15" s="78"/>
-      <c r="AB15" s="78"/>
-      <c r="AC15" s="78"/>
-      <c r="AD15" s="79"/>
+      <c r="AA15" s="65"/>
+      <c r="AB15" s="65"/>
+      <c r="AC15" s="65"/>
+      <c r="AD15" s="64"/>
     </row>
     <row r="16" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="60"/>
       <c r="E16" s="62"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="73"/>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="73"/>
-      <c r="S16" s="73"/>
-      <c r="T16" s="73"/>
-      <c r="U16" s="73"/>
-      <c r="V16" s="73"/>
-      <c r="W16" s="73"/>
-      <c r="X16" s="73"/>
-      <c r="Y16" s="74"/>
-      <c r="Z16" s="83"/>
-      <c r="AA16" s="84"/>
-      <c r="AB16" s="84"/>
-      <c r="AC16" s="84"/>
-      <c r="AD16" s="85"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="76"/>
+      <c r="O16" s="76"/>
+      <c r="P16" s="76"/>
+      <c r="Q16" s="76"/>
+      <c r="R16" s="76"/>
+      <c r="S16" s="76"/>
+      <c r="T16" s="76"/>
+      <c r="U16" s="76"/>
+      <c r="V16" s="76"/>
+      <c r="W16" s="76"/>
+      <c r="X16" s="76"/>
+      <c r="Y16" s="77"/>
+      <c r="Z16" s="68"/>
+      <c r="AA16" s="69"/>
+      <c r="AB16" s="69"/>
+      <c r="AC16" s="69"/>
+      <c r="AD16" s="70"/>
     </row>
     <row r="17" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="60"/>
       <c r="E17" s="62"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="73"/>
-      <c r="Q17" s="73"/>
-      <c r="R17" s="73"/>
-      <c r="S17" s="73"/>
-      <c r="T17" s="73"/>
-      <c r="U17" s="73"/>
-      <c r="V17" s="73"/>
-      <c r="W17" s="73"/>
-      <c r="X17" s="73"/>
-      <c r="Y17" s="74"/>
-      <c r="Z17" s="83"/>
-      <c r="AA17" s="84"/>
-      <c r="AB17" s="84"/>
-      <c r="AC17" s="84"/>
-      <c r="AD17" s="85"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="76"/>
+      <c r="O17" s="76"/>
+      <c r="P17" s="76"/>
+      <c r="Q17" s="76"/>
+      <c r="R17" s="76"/>
+      <c r="S17" s="76"/>
+      <c r="T17" s="76"/>
+      <c r="U17" s="76"/>
+      <c r="V17" s="76"/>
+      <c r="W17" s="76"/>
+      <c r="X17" s="76"/>
+      <c r="Y17" s="77"/>
+      <c r="Z17" s="68"/>
+      <c r="AA17" s="69"/>
+      <c r="AB17" s="69"/>
+      <c r="AC17" s="69"/>
+      <c r="AD17" s="70"/>
     </row>
     <row r="18" spans="1:33" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="86" t="s">
+      <c r="D18" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="86"/>
-      <c r="M18" s="86"/>
-      <c r="N18" s="86"/>
-      <c r="O18" s="86"/>
-      <c r="P18" s="86"/>
-      <c r="Q18" s="86"/>
-      <c r="R18" s="86"/>
-      <c r="S18" s="86"/>
-      <c r="T18" s="86"/>
-      <c r="U18" s="86"/>
-      <c r="V18" s="86"/>
-      <c r="W18" s="86"/>
-      <c r="X18" s="86"/>
-      <c r="Y18" s="87"/>
-      <c r="Z18" s="101">
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="78"/>
+      <c r="R18" s="78"/>
+      <c r="S18" s="78"/>
+      <c r="T18" s="78"/>
+      <c r="U18" s="78"/>
+      <c r="V18" s="78"/>
+      <c r="W18" s="78"/>
+      <c r="X18" s="78"/>
+      <c r="Y18" s="79"/>
+      <c r="Z18" s="80">
         <f>SUM(Z16:AD17)</f>
         <v>0</v>
       </c>
-      <c r="AA18" s="102"/>
-      <c r="AB18" s="102"/>
-      <c r="AC18" s="102"/>
-      <c r="AD18" s="103"/>
+      <c r="AA18" s="81"/>
+      <c r="AB18" s="81"/>
+      <c r="AC18" s="81"/>
+      <c r="AD18" s="82"/>
       <c r="AE18" s="39"/>
       <c r="AG18" s="20"/>
     </row>
@@ -4806,10 +4804,10 @@
       <c r="AD20" s="47"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B21" s="99">
+      <c r="B21" s="89">
         <v>3.03</v>
       </c>
-      <c r="C21" s="99"/>
+      <c r="C21" s="89"/>
       <c r="D21" s="110" t="s">
         <v>44</v>
       </c>
@@ -4844,10 +4842,10 @@
       <c r="A22" s="41"/>
       <c r="B22" s="42"/>
       <c r="C22" s="41"/>
-      <c r="D22" s="104" t="s">
+      <c r="D22" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="104"/>
+      <c r="E22" s="83"/>
       <c r="F22" s="116" t="s">
         <v>45</v>
       </c>
@@ -4870,13 +4868,13 @@
       <c r="W22" s="116"/>
       <c r="X22" s="116"/>
       <c r="Y22" s="116"/>
-      <c r="Z22" s="104" t="s">
+      <c r="Z22" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="AA22" s="104"/>
-      <c r="AB22" s="104"/>
-      <c r="AC22" s="104"/>
-      <c r="AD22" s="104"/>
+      <c r="AA22" s="83"/>
+      <c r="AB22" s="83"/>
+      <c r="AC22" s="83"/>
+      <c r="AD22" s="83"/>
       <c r="AE22" s="41"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.3">
@@ -4916,87 +4914,95 @@
       <c r="AD23" s="115"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="D24" s="75">
+      <c r="D24" s="87">
         <v>2</v>
       </c>
-      <c r="E24" s="76"/>
-      <c r="F24" s="63" t="s">
+      <c r="E24" s="88"/>
+      <c r="F24" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="64"/>
-      <c r="P24" s="64"/>
-      <c r="Q24" s="64"/>
-      <c r="R24" s="64"/>
-      <c r="S24" s="64"/>
-      <c r="T24" s="64"/>
-      <c r="U24" s="64"/>
-      <c r="V24" s="64"/>
-      <c r="W24" s="64"/>
-      <c r="X24" s="64"/>
-      <c r="Y24" s="65"/>
-      <c r="Z24" s="80">
+      <c r="G24" s="104"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="104"/>
+      <c r="J24" s="104"/>
+      <c r="K24" s="104"/>
+      <c r="L24" s="104"/>
+      <c r="M24" s="104"/>
+      <c r="N24" s="104"/>
+      <c r="O24" s="104"/>
+      <c r="P24" s="104"/>
+      <c r="Q24" s="104"/>
+      <c r="R24" s="104"/>
+      <c r="S24" s="104"/>
+      <c r="T24" s="104"/>
+      <c r="U24" s="104"/>
+      <c r="V24" s="104"/>
+      <c r="W24" s="104"/>
+      <c r="X24" s="104"/>
+      <c r="Y24" s="105"/>
+      <c r="Z24" s="100">
         <f>Z18</f>
         <v>0</v>
       </c>
-      <c r="AA24" s="81"/>
-      <c r="AB24" s="81"/>
-      <c r="AC24" s="81"/>
-      <c r="AD24" s="82"/>
+      <c r="AA24" s="101"/>
+      <c r="AB24" s="101"/>
+      <c r="AC24" s="101"/>
+      <c r="AD24" s="102"/>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="66" t="s">
+      <c r="D25" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="67"/>
-      <c r="O25" s="67"/>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="67"/>
-      <c r="R25" s="67"/>
-      <c r="S25" s="67"/>
-      <c r="T25" s="67"/>
-      <c r="U25" s="67"/>
-      <c r="V25" s="67"/>
-      <c r="W25" s="67"/>
-      <c r="X25" s="67"/>
-      <c r="Y25" s="68"/>
-      <c r="Z25" s="94">
+      <c r="E25" s="107"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="107"/>
+      <c r="L25" s="107"/>
+      <c r="M25" s="107"/>
+      <c r="N25" s="107"/>
+      <c r="O25" s="107"/>
+      <c r="P25" s="107"/>
+      <c r="Q25" s="107"/>
+      <c r="R25" s="107"/>
+      <c r="S25" s="107"/>
+      <c r="T25" s="107"/>
+      <c r="U25" s="107"/>
+      <c r="V25" s="107"/>
+      <c r="W25" s="107"/>
+      <c r="X25" s="107"/>
+      <c r="Y25" s="108"/>
+      <c r="Z25" s="97">
         <f>SUM(Z23:AD24)</f>
         <v>0</v>
       </c>
-      <c r="AA25" s="95"/>
-      <c r="AB25" s="95"/>
-      <c r="AC25" s="95"/>
-      <c r="AD25" s="96"/>
+      <c r="AA25" s="98"/>
+      <c r="AB25" s="98"/>
+      <c r="AC25" s="98"/>
+      <c r="AD25" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="Z8:AD8"/>
-    <mergeCell ref="Z16:AD16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="Z9:AD9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="Z10:AD10"/>
+    <mergeCell ref="Z25:AD25"/>
+    <mergeCell ref="F8:Y8"/>
+    <mergeCell ref="F9:Y9"/>
+    <mergeCell ref="F10:Y10"/>
+    <mergeCell ref="F16:Y16"/>
+    <mergeCell ref="F17:Y17"/>
+    <mergeCell ref="Z24:AD24"/>
+    <mergeCell ref="D18:Y18"/>
+    <mergeCell ref="Z18:AD18"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F15:Y15"/>
+    <mergeCell ref="D25:Y25"/>
+    <mergeCell ref="Z17:AD17"/>
+    <mergeCell ref="Z15:AD15"/>
     <mergeCell ref="B3:AD3"/>
     <mergeCell ref="B4:AD4"/>
     <mergeCell ref="B21:C21"/>
@@ -5013,29 +5019,20 @@
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="D11:Y11"/>
     <mergeCell ref="Z11:AD11"/>
-    <mergeCell ref="Z25:AD25"/>
-    <mergeCell ref="F8:Y8"/>
-    <mergeCell ref="F9:Y9"/>
-    <mergeCell ref="F10:Y10"/>
-    <mergeCell ref="F16:Y16"/>
-    <mergeCell ref="F17:Y17"/>
-    <mergeCell ref="Z24:AD24"/>
-    <mergeCell ref="D18:Y18"/>
-    <mergeCell ref="Z18:AD18"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F15:Y15"/>
-    <mergeCell ref="D25:Y25"/>
-    <mergeCell ref="Z17:AD17"/>
-    <mergeCell ref="Z15:AD15"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="Z8:AD8"/>
+    <mergeCell ref="Z16:AD16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="Z9:AD9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="Z10:AD10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"-,Bold"Singapore Tourism Board 
-Tourism Product Development Fund (TPDF)</oddHeader>
-    <oddFooter>&amp;L&amp;"-,Regular"[Ver. 02.05.19]&amp;C&amp;"-,Regular"Confidential&amp;R&amp;"-,Regular"Pg &amp;P of &amp;N</oddFooter>
+    <oddHeader>&amp;C&amp;"-,Bold"SG Eco Fund</oddHeader>
+    <oddFooter>&amp;L[Ver. 25.11.20]&amp;CConfidential&amp;RPg &amp;P of &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -5045,7 +5042,7 @@
   <dimension ref="A1:AG29"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -5208,163 +5205,163 @@
     </row>
     <row r="11" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
-      <c r="D11" s="145" t="s">
+      <c r="D11" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="146"/>
-      <c r="F11" s="146"/>
-      <c r="G11" s="146"/>
-      <c r="H11" s="146"/>
-      <c r="I11" s="146"/>
-      <c r="J11" s="146"/>
-      <c r="K11" s="146"/>
-      <c r="L11" s="146"/>
-      <c r="M11" s="146"/>
-      <c r="N11" s="146"/>
-      <c r="O11" s="146"/>
-      <c r="P11" s="146"/>
-      <c r="Q11" s="146"/>
-      <c r="R11" s="146"/>
-      <c r="S11" s="146"/>
-      <c r="T11" s="147"/>
-      <c r="U11" s="148" t="s">
+      <c r="E11" s="129"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="129"/>
+      <c r="K11" s="129"/>
+      <c r="L11" s="129"/>
+      <c r="M11" s="129"/>
+      <c r="N11" s="129"/>
+      <c r="O11" s="129"/>
+      <c r="P11" s="129"/>
+      <c r="Q11" s="129"/>
+      <c r="R11" s="129"/>
+      <c r="S11" s="129"/>
+      <c r="T11" s="130"/>
+      <c r="U11" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="V11" s="140"/>
-      <c r="W11" s="140"/>
-      <c r="X11" s="140"/>
-      <c r="Y11" s="141"/>
-      <c r="Z11" s="139" t="s">
+      <c r="V11" s="122"/>
+      <c r="W11" s="122"/>
+      <c r="X11" s="122"/>
+      <c r="Y11" s="123"/>
+      <c r="Z11" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="AA11" s="140"/>
-      <c r="AB11" s="140"/>
-      <c r="AC11" s="140"/>
-      <c r="AD11" s="141"/>
+      <c r="AA11" s="122"/>
+      <c r="AB11" s="122"/>
+      <c r="AC11" s="122"/>
+      <c r="AD11" s="123"/>
     </row>
     <row r="12" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="133"/>
-      <c r="I12" s="133"/>
-      <c r="J12" s="133"/>
-      <c r="K12" s="133"/>
-      <c r="L12" s="133"/>
-      <c r="M12" s="133"/>
-      <c r="N12" s="133"/>
-      <c r="O12" s="133"/>
-      <c r="P12" s="133"/>
-      <c r="Q12" s="133"/>
-      <c r="R12" s="133"/>
-      <c r="S12" s="133"/>
-      <c r="T12" s="134"/>
-      <c r="U12" s="136" t="s">
+      <c r="D12" s="131"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="132"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="132"/>
+      <c r="K12" s="132"/>
+      <c r="L12" s="132"/>
+      <c r="M12" s="132"/>
+      <c r="N12" s="132"/>
+      <c r="O12" s="132"/>
+      <c r="P12" s="132"/>
+      <c r="Q12" s="132"/>
+      <c r="R12" s="132"/>
+      <c r="S12" s="132"/>
+      <c r="T12" s="133"/>
+      <c r="U12" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="V12" s="136"/>
-      <c r="W12" s="136"/>
-      <c r="X12" s="136"/>
-      <c r="Y12" s="137"/>
-      <c r="Z12" s="135" t="s">
+      <c r="V12" s="125"/>
+      <c r="W12" s="125"/>
+      <c r="X12" s="125"/>
+      <c r="Y12" s="126"/>
+      <c r="Z12" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="AA12" s="136"/>
-      <c r="AB12" s="136"/>
-      <c r="AC12" s="136"/>
-      <c r="AD12" s="137"/>
+      <c r="AA12" s="125"/>
+      <c r="AB12" s="125"/>
+      <c r="AC12" s="125"/>
+      <c r="AD12" s="126"/>
     </row>
     <row r="13" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="73"/>
-      <c r="Q13" s="73"/>
-      <c r="R13" s="73"/>
-      <c r="S13" s="73"/>
-      <c r="T13" s="74"/>
-      <c r="U13" s="151"/>
-      <c r="V13" s="152"/>
-      <c r="W13" s="152"/>
-      <c r="X13" s="152"/>
-      <c r="Y13" s="153"/>
-      <c r="Z13" s="151"/>
-      <c r="AA13" s="152"/>
-      <c r="AB13" s="152"/>
-      <c r="AC13" s="152"/>
-      <c r="AD13" s="153"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="76"/>
+      <c r="P13" s="76"/>
+      <c r="Q13" s="76"/>
+      <c r="R13" s="76"/>
+      <c r="S13" s="76"/>
+      <c r="T13" s="77"/>
+      <c r="U13" s="134"/>
+      <c r="V13" s="135"/>
+      <c r="W13" s="135"/>
+      <c r="X13" s="135"/>
+      <c r="Y13" s="136"/>
+      <c r="Z13" s="134"/>
+      <c r="AA13" s="135"/>
+      <c r="AB13" s="135"/>
+      <c r="AC13" s="135"/>
+      <c r="AD13" s="136"/>
     </row>
     <row r="14" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="73"/>
-      <c r="Q14" s="73"/>
-      <c r="R14" s="73"/>
-      <c r="S14" s="73"/>
-      <c r="T14" s="74"/>
-      <c r="U14" s="72"/>
-      <c r="V14" s="73"/>
-      <c r="W14" s="73"/>
-      <c r="X14" s="73"/>
-      <c r="Y14" s="74"/>
-      <c r="Z14" s="72"/>
-      <c r="AA14" s="73"/>
-      <c r="AB14" s="73"/>
-      <c r="AC14" s="73"/>
-      <c r="AD14" s="74"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="76"/>
+      <c r="P14" s="76"/>
+      <c r="Q14" s="76"/>
+      <c r="R14" s="76"/>
+      <c r="S14" s="76"/>
+      <c r="T14" s="77"/>
+      <c r="U14" s="75"/>
+      <c r="V14" s="76"/>
+      <c r="W14" s="76"/>
+      <c r="X14" s="76"/>
+      <c r="Y14" s="77"/>
+      <c r="Z14" s="75"/>
+      <c r="AA14" s="76"/>
+      <c r="AB14" s="76"/>
+      <c r="AC14" s="76"/>
+      <c r="AD14" s="77"/>
     </row>
     <row r="15" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="73"/>
-      <c r="Q15" s="73"/>
-      <c r="R15" s="73"/>
-      <c r="S15" s="73"/>
-      <c r="T15" s="74"/>
-      <c r="U15" s="72"/>
-      <c r="V15" s="73"/>
-      <c r="W15" s="73"/>
-      <c r="X15" s="73"/>
-      <c r="Y15" s="74"/>
-      <c r="Z15" s="142"/>
-      <c r="AA15" s="143"/>
-      <c r="AB15" s="143"/>
-      <c r="AC15" s="143"/>
-      <c r="AD15" s="144"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="76"/>
+      <c r="Q15" s="76"/>
+      <c r="R15" s="76"/>
+      <c r="S15" s="76"/>
+      <c r="T15" s="77"/>
+      <c r="U15" s="75"/>
+      <c r="V15" s="76"/>
+      <c r="W15" s="76"/>
+      <c r="X15" s="76"/>
+      <c r="Y15" s="77"/>
+      <c r="Z15" s="137"/>
+      <c r="AA15" s="138"/>
+      <c r="AB15" s="138"/>
+      <c r="AC15" s="138"/>
+      <c r="AD15" s="139"/>
     </row>
     <row r="16" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
@@ -5427,201 +5424,201 @@
     </row>
     <row r="21" spans="2:33" s="3" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
-      <c r="D21" s="145" t="s">
+      <c r="D21" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="146"/>
-      <c r="F21" s="146"/>
-      <c r="G21" s="146"/>
-      <c r="H21" s="146"/>
-      <c r="I21" s="146"/>
-      <c r="J21" s="146"/>
-      <c r="K21" s="146"/>
-      <c r="L21" s="146"/>
-      <c r="M21" s="146"/>
-      <c r="N21" s="147"/>
-      <c r="O21" s="146" t="s">
+      <c r="E21" s="129"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="129"/>
+      <c r="H21" s="129"/>
+      <c r="I21" s="129"/>
+      <c r="J21" s="129"/>
+      <c r="K21" s="129"/>
+      <c r="L21" s="129"/>
+      <c r="M21" s="129"/>
+      <c r="N21" s="130"/>
+      <c r="O21" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="P21" s="146"/>
-      <c r="Q21" s="146"/>
-      <c r="R21" s="146"/>
-      <c r="S21" s="147"/>
-      <c r="T21" s="139" t="s">
+      <c r="P21" s="129"/>
+      <c r="Q21" s="129"/>
+      <c r="R21" s="129"/>
+      <c r="S21" s="130"/>
+      <c r="T21" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="U21" s="148"/>
-      <c r="V21" s="149"/>
-      <c r="W21" s="150" t="s">
+      <c r="U21" s="121"/>
+      <c r="V21" s="140"/>
+      <c r="W21" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="X21" s="140"/>
-      <c r="Y21" s="141"/>
-      <c r="Z21" s="139" t="s">
+      <c r="X21" s="122"/>
+      <c r="Y21" s="123"/>
+      <c r="Z21" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="AA21" s="140"/>
-      <c r="AB21" s="140"/>
-      <c r="AC21" s="140"/>
-      <c r="AD21" s="141"/>
+      <c r="AA21" s="122"/>
+      <c r="AB21" s="122"/>
+      <c r="AC21" s="122"/>
+      <c r="AD21" s="123"/>
     </row>
     <row r="22" spans="2:33" s="3" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="133"/>
-      <c r="J22" s="133"/>
-      <c r="K22" s="133"/>
-      <c r="L22" s="133"/>
-      <c r="M22" s="133"/>
-      <c r="N22" s="134"/>
-      <c r="O22" s="133"/>
-      <c r="P22" s="133"/>
-      <c r="Q22" s="133"/>
-      <c r="R22" s="133"/>
-      <c r="S22" s="134"/>
-      <c r="T22" s="135" t="s">
+      <c r="D22" s="131"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="132"/>
+      <c r="G22" s="132"/>
+      <c r="H22" s="132"/>
+      <c r="I22" s="132"/>
+      <c r="J22" s="132"/>
+      <c r="K22" s="132"/>
+      <c r="L22" s="132"/>
+      <c r="M22" s="132"/>
+      <c r="N22" s="133"/>
+      <c r="O22" s="132"/>
+      <c r="P22" s="132"/>
+      <c r="Q22" s="132"/>
+      <c r="R22" s="132"/>
+      <c r="S22" s="133"/>
+      <c r="T22" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="U22" s="136"/>
-      <c r="V22" s="137"/>
-      <c r="W22" s="138" t="s">
+      <c r="U22" s="125"/>
+      <c r="V22" s="126"/>
+      <c r="W22" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="X22" s="92"/>
-      <c r="Y22" s="93"/>
-      <c r="Z22" s="135" t="s">
+      <c r="X22" s="96"/>
+      <c r="Y22" s="92"/>
+      <c r="Z22" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="AA22" s="136"/>
-      <c r="AB22" s="136"/>
-      <c r="AC22" s="136"/>
-      <c r="AD22" s="137"/>
+      <c r="AA22" s="125"/>
+      <c r="AB22" s="125"/>
+      <c r="AC22" s="125"/>
+      <c r="AD22" s="126"/>
     </row>
     <row r="23" spans="2:33" s="3" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="4"/>
-      <c r="D23" s="126" t="s">
+      <c r="D23" s="148" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="127"/>
-      <c r="F23" s="127"/>
-      <c r="G23" s="127"/>
-      <c r="H23" s="127"/>
-      <c r="I23" s="127"/>
-      <c r="J23" s="127"/>
-      <c r="K23" s="127"/>
-      <c r="L23" s="127"/>
-      <c r="M23" s="127"/>
-      <c r="N23" s="128"/>
-      <c r="O23" s="129" t="s">
+      <c r="E23" s="149"/>
+      <c r="F23" s="149"/>
+      <c r="G23" s="149"/>
+      <c r="H23" s="149"/>
+      <c r="I23" s="149"/>
+      <c r="J23" s="149"/>
+      <c r="K23" s="149"/>
+      <c r="L23" s="149"/>
+      <c r="M23" s="149"/>
+      <c r="N23" s="150"/>
+      <c r="O23" s="151" t="s">
         <v>40</v>
       </c>
-      <c r="P23" s="130"/>
-      <c r="Q23" s="130"/>
-      <c r="R23" s="130"/>
-      <c r="S23" s="131"/>
-      <c r="T23" s="121">
+      <c r="P23" s="152"/>
+      <c r="Q23" s="152"/>
+      <c r="R23" s="152"/>
+      <c r="S23" s="153"/>
+      <c r="T23" s="142">
         <v>20</v>
       </c>
-      <c r="U23" s="122"/>
-      <c r="V23" s="123"/>
-      <c r="W23" s="121">
+      <c r="U23" s="143"/>
+      <c r="V23" s="144"/>
+      <c r="W23" s="142">
         <f>T23</f>
         <v>20</v>
       </c>
-      <c r="X23" s="122"/>
-      <c r="Y23" s="123"/>
-      <c r="Z23" s="124" t="s">
+      <c r="X23" s="143"/>
+      <c r="Y23" s="144"/>
+      <c r="Z23" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="AA23" s="125"/>
-      <c r="AB23" s="125"/>
-      <c r="AC23" s="125"/>
+      <c r="AA23" s="146"/>
+      <c r="AB23" s="146"/>
+      <c r="AC23" s="146"/>
       <c r="AD23" s="112"/>
     </row>
     <row r="24" spans="2:33" s="3" customFormat="1" ht="26.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="4"/>
-      <c r="D24" s="126" t="s">
+      <c r="D24" s="148" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="127"/>
-      <c r="F24" s="127"/>
-      <c r="G24" s="127"/>
-      <c r="H24" s="127"/>
-      <c r="I24" s="127"/>
-      <c r="J24" s="127"/>
-      <c r="K24" s="127"/>
-      <c r="L24" s="127"/>
-      <c r="M24" s="127"/>
-      <c r="N24" s="128"/>
-      <c r="O24" s="129" t="s">
+      <c r="E24" s="149"/>
+      <c r="F24" s="149"/>
+      <c r="G24" s="149"/>
+      <c r="H24" s="149"/>
+      <c r="I24" s="149"/>
+      <c r="J24" s="149"/>
+      <c r="K24" s="149"/>
+      <c r="L24" s="149"/>
+      <c r="M24" s="149"/>
+      <c r="N24" s="150"/>
+      <c r="O24" s="151" t="s">
         <v>33</v>
       </c>
-      <c r="P24" s="130"/>
-      <c r="Q24" s="130"/>
-      <c r="R24" s="130"/>
-      <c r="S24" s="131"/>
-      <c r="T24" s="121">
+      <c r="P24" s="152"/>
+      <c r="Q24" s="152"/>
+      <c r="R24" s="152"/>
+      <c r="S24" s="153"/>
+      <c r="T24" s="142">
         <v>40</v>
       </c>
-      <c r="U24" s="122"/>
-      <c r="V24" s="123"/>
-      <c r="W24" s="121">
+      <c r="U24" s="143"/>
+      <c r="V24" s="144"/>
+      <c r="W24" s="142">
         <f>W23+T24</f>
         <v>60</v>
       </c>
-      <c r="X24" s="122"/>
-      <c r="Y24" s="123"/>
-      <c r="Z24" s="124" t="s">
+      <c r="X24" s="143"/>
+      <c r="Y24" s="144"/>
+      <c r="Z24" s="145" t="s">
         <v>35</v>
       </c>
-      <c r="AA24" s="125"/>
-      <c r="AB24" s="125"/>
-      <c r="AC24" s="125"/>
+      <c r="AA24" s="146"/>
+      <c r="AB24" s="146"/>
+      <c r="AC24" s="146"/>
       <c r="AD24" s="112"/>
     </row>
     <row r="25" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="4"/>
-      <c r="D25" s="126" t="s">
+      <c r="D25" s="148" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="127"/>
-      <c r="F25" s="127"/>
-      <c r="G25" s="127"/>
-      <c r="H25" s="127"/>
-      <c r="I25" s="127"/>
-      <c r="J25" s="127"/>
-      <c r="K25" s="127"/>
-      <c r="L25" s="127"/>
-      <c r="M25" s="127"/>
-      <c r="N25" s="128"/>
-      <c r="O25" s="126" t="s">
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="149"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="149"/>
+      <c r="N25" s="150"/>
+      <c r="O25" s="148" t="s">
         <v>37</v>
       </c>
-      <c r="P25" s="127"/>
-      <c r="Q25" s="127"/>
-      <c r="R25" s="127"/>
-      <c r="S25" s="128"/>
-      <c r="T25" s="121">
+      <c r="P25" s="149"/>
+      <c r="Q25" s="149"/>
+      <c r="R25" s="149"/>
+      <c r="S25" s="150"/>
+      <c r="T25" s="142">
         <v>40</v>
       </c>
-      <c r="U25" s="122"/>
-      <c r="V25" s="123"/>
-      <c r="W25" s="121">
+      <c r="U25" s="143"/>
+      <c r="V25" s="144"/>
+      <c r="W25" s="142">
         <f>W24+T25</f>
         <v>100</v>
       </c>
-      <c r="X25" s="122"/>
-      <c r="Y25" s="123"/>
-      <c r="Z25" s="124" t="s">
+      <c r="X25" s="143"/>
+      <c r="Y25" s="144"/>
+      <c r="Z25" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="AA25" s="125"/>
-      <c r="AB25" s="125"/>
-      <c r="AC25" s="125"/>
+      <c r="AA25" s="146"/>
+      <c r="AB25" s="146"/>
+      <c r="AC25" s="146"/>
       <c r="AD25" s="112"/>
     </row>
     <row r="26" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -5750,31 +5747,16 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="N7:AD7"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="N5:AD5"/>
-    <mergeCell ref="N6:AD6"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="U11:Y11"/>
-    <mergeCell ref="Z11:AD11"/>
-    <mergeCell ref="U12:Y12"/>
-    <mergeCell ref="Z12:AD12"/>
-    <mergeCell ref="D11:T12"/>
-    <mergeCell ref="U13:Y13"/>
-    <mergeCell ref="Z13:AD13"/>
-    <mergeCell ref="U14:Y14"/>
-    <mergeCell ref="Z14:AD14"/>
-    <mergeCell ref="D13:T13"/>
-    <mergeCell ref="D14:T14"/>
-    <mergeCell ref="Z21:AD21"/>
-    <mergeCell ref="U15:Y15"/>
-    <mergeCell ref="Z15:AD15"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D21:N21"/>
-    <mergeCell ref="O21:S21"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="W21:Y21"/>
-    <mergeCell ref="D15:T15"/>
+    <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="Z24:AD24"/>
+    <mergeCell ref="D25:N25"/>
+    <mergeCell ref="O25:S25"/>
+    <mergeCell ref="T25:V25"/>
+    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="Z25:AD25"/>
+    <mergeCell ref="D24:N24"/>
+    <mergeCell ref="O24:S24"/>
+    <mergeCell ref="T24:V24"/>
     <mergeCell ref="T23:V23"/>
     <mergeCell ref="W23:Y23"/>
     <mergeCell ref="Z23:AD23"/>
@@ -5785,23 +5767,37 @@
     <mergeCell ref="Z22:AD22"/>
     <mergeCell ref="D23:N23"/>
     <mergeCell ref="O23:S23"/>
-    <mergeCell ref="W24:Y24"/>
-    <mergeCell ref="Z24:AD24"/>
-    <mergeCell ref="D25:N25"/>
-    <mergeCell ref="O25:S25"/>
-    <mergeCell ref="T25:V25"/>
-    <mergeCell ref="W25:Y25"/>
-    <mergeCell ref="Z25:AD25"/>
-    <mergeCell ref="D24:N24"/>
-    <mergeCell ref="O24:S24"/>
-    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="Z21:AD21"/>
+    <mergeCell ref="U15:Y15"/>
+    <mergeCell ref="Z15:AD15"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D21:N21"/>
+    <mergeCell ref="O21:S21"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="D15:T15"/>
+    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="Z13:AD13"/>
+    <mergeCell ref="U14:Y14"/>
+    <mergeCell ref="Z14:AD14"/>
+    <mergeCell ref="D13:T13"/>
+    <mergeCell ref="D14:T14"/>
+    <mergeCell ref="U11:Y11"/>
+    <mergeCell ref="Z11:AD11"/>
+    <mergeCell ref="U12:Y12"/>
+    <mergeCell ref="Z12:AD12"/>
+    <mergeCell ref="D11:T12"/>
+    <mergeCell ref="N7:AD7"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="N5:AD5"/>
+    <mergeCell ref="N6:AD6"/>
+    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"-,Bold"Singapore Tourism Board 
-Tourism Product Development Fund (TPDF)</oddHeader>
-    <oddFooter>&amp;L&amp;"-,Regular"[Ver. 02.05.19]&amp;C&amp;"-,Regular"Confidential&amp;R&amp;"-,Regular"Pg &amp;P of &amp;N</oddFooter>
+    <oddHeader>&amp;C&amp;"-,Bold"SG Eco Fund</oddHeader>
+    <oddFooter>&amp;L[Ver. 25.11.20]&amp;CConfidential&amp;RPg &amp;P of &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>